--- a/CheckpointCursos_2023.xlsx
+++ b/CheckpointCursos_2023.xlsx
@@ -5,30 +5,31 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itauchile-my.sharepoint.com/personal/ccgq095k_itau_cl/Documents/Documents/03_MyLearning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CCGQ095K\Documents\Udemy\udemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1408" documentId="13_ncr:1_{1E159D0F-988F-4915-95D5-61F00AA432F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CF98B176-0908-4AF3-B8BB-C4F38733115D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8793B629-DF61-482B-A619-0CDE3FB20DB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cursos" sheetId="12" r:id="rId1"/>
-    <sheet name="JSModerno" sheetId="7" r:id="rId2"/>
-    <sheet name="NodeCeroExperto" sheetId="13" r:id="rId3"/>
-    <sheet name="PythonTotal" sheetId="11" r:id="rId4"/>
-    <sheet name="JQueryFH" sheetId="8" r:id="rId5"/>
-    <sheet name="MasterEnCSS" sheetId="3" r:id="rId6"/>
-    <sheet name="Html&amp;CSS_CeroAvanzado" sheetId="6" r:id="rId7"/>
-    <sheet name="HtmlCssBootcamp2023" sheetId="15" r:id="rId8"/>
-    <sheet name="ExpRegDesaWeb" sheetId="10" r:id="rId9"/>
-    <sheet name="Bootstrap4" sheetId="9" r:id="rId10"/>
-    <sheet name="UIConFigma" sheetId="4" r:id="rId11"/>
-    <sheet name="GitGitHub" sheetId="1" r:id="rId12"/>
-    <sheet name="Docker" sheetId="2" r:id="rId13"/>
+    <sheet name="TC2023WDB" sheetId="16" r:id="rId2"/>
+    <sheet name="JSModerno" sheetId="7" r:id="rId3"/>
+    <sheet name="NodeCeroExperto" sheetId="13" r:id="rId4"/>
+    <sheet name="PythonTotal" sheetId="11" r:id="rId5"/>
+    <sheet name="JQueryFH" sheetId="8" r:id="rId6"/>
+    <sheet name="MasterEnCSS" sheetId="3" r:id="rId7"/>
+    <sheet name="Html&amp;CSS_CeroAvanzado" sheetId="6" r:id="rId8"/>
+    <sheet name="HtmlCssBootcamp2023" sheetId="15" r:id="rId9"/>
+    <sheet name="ExpRegDesaWeb" sheetId="10" r:id="rId10"/>
+    <sheet name="Bootstrap4" sheetId="9" r:id="rId11"/>
+    <sheet name="UIConFigma" sheetId="4" r:id="rId12"/>
+    <sheet name="GitGitHub" sheetId="1" r:id="rId13"/>
+    <sheet name="Docker" sheetId="2" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cursos!$A$1:$E$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cursos!$A$1:$E$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="229">
   <si>
     <t>Hora</t>
   </si>
@@ -69,9 +70,6 @@
     <t>Sección 6: Inicios en GitHub, Git Remote, Push y Pull</t>
   </si>
   <si>
-    <t>Curso Git + GitHub (Udemy)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sección 7: GitHub - Básico </t>
   </si>
   <si>
@@ -306,9 +304,6 @@
     <t>Sección 11: Asignación de ejercicio final y despedida</t>
   </si>
   <si>
-    <t>Repositorio</t>
-  </si>
-  <si>
     <t>JavaScript Moderno: Guía para dominar el lenguaje</t>
   </si>
   <si>
@@ -549,15 +544,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Tot. Horas curso</t>
-  </si>
-  <si>
-    <t>Tot. Horas finalizadas</t>
-  </si>
-  <si>
-    <t>Tot. Horas pendientes</t>
-  </si>
-  <si>
     <t>Categoria</t>
   </si>
   <si>
@@ -670,15 +656,92 @@
   </si>
   <si>
     <t xml:space="preserve">Sección 2: HTML Basics </t>
+  </si>
+  <si>
+    <t>The Complete 2023 Web Development Bootcamp</t>
+  </si>
+  <si>
+    <t>Sección 1: Front-End Web Development</t>
+  </si>
+  <si>
+    <t>1. What you'll Get in This Course</t>
+  </si>
+  <si>
+    <t>2. Download the Course Syllabus (Recurso)</t>
+  </si>
+  <si>
+    <t>3. Download the 12 Rules to Learn to Code eBook [Latest Edition] (Recurso)</t>
+  </si>
+  <si>
+    <t>4. Download the Required Software</t>
+  </si>
+  <si>
+    <t>5. How Does the Internet Actually Work? (Recurso)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. How Do Websites Actually Work? </t>
+  </si>
+  <si>
+    <t>7. How to Get the Most Out of the Course (Recurso)</t>
+  </si>
+  <si>
+    <t>8. How to Get Help When You're Stuck</t>
+  </si>
+  <si>
+    <t>9. Pathfinder</t>
+  </si>
+  <si>
+    <t>Sección 2: Introduction to HTML</t>
+  </si>
+  <si>
+    <t>10. A Note About 2023 Course Updates</t>
+  </si>
+  <si>
+    <t>Sección 3: Intermediate HTML</t>
+  </si>
+  <si>
+    <t>11. What is HTML?</t>
+  </si>
+  <si>
+    <t>12. How to Download the Course Resources</t>
+  </si>
+  <si>
+    <t>13. HTML Heading Elements (Recurso)</t>
+  </si>
+  <si>
+    <t>14. HTML Paragraph Elements (Recurso)</t>
+  </si>
+  <si>
+    <t>15. Self Closing Tags (Recurso)</t>
+  </si>
+  <si>
+    <t>16. [Proyect] Movie Ranking (Recurso)</t>
+  </si>
+  <si>
+    <t>17. How to Ace this Course (Recurso)</t>
+  </si>
+  <si>
+    <t>FrontEnd *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repositorio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curso Git + GitHub </t>
+  </si>
+  <si>
+    <t>Horas Cursos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Horas Terminadas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ am/pm"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -801,7 +864,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1024,13 +1087,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1041,7 +1104,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -1054,57 +1117,84 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1118,7 +1208,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1165,7 +1255,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1201,7 +1290,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1220,11 +1308,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1262,8 +1350,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1287,7 +1375,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1300,17 +1388,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Énfasis2" xfId="2" builtinId="33"/>
@@ -1600,10 +1702,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550FEAB2-5563-4D43-B393-18EB65F1D3AD}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1624,292 +1727,304 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="B1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="62" t="str">
+      <c r="B1" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="84" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="60" t="str">
         <f>JQueryFH!A1</f>
         <v>Jquery: De cero a avanzado (Legacy)</v>
       </c>
-      <c r="C2" s="48" t="str">
+      <c r="C2" s="46" t="str">
         <f>JQueryFH!B10</f>
         <v>9:22:00</v>
       </c>
-      <c r="D2" s="42" t="str">
+      <c r="D2" s="40" t="str">
         <f>JQueryFH!C10</f>
         <v>0:00:00</v>
       </c>
-      <c r="E2" s="43" t="str">
+      <c r="E2" s="41" t="str">
         <f>JQueryFH!D10</f>
         <v>9:22:00</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="B3" s="61" t="str">
+      <c r="A3" s="85" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="82" t="str">
         <f>JSModerno!A1</f>
         <v>JavaScript Moderno: Guía para dominar el lenguaje</v>
       </c>
-      <c r="C3" s="49" t="str">
+      <c r="C3" s="47" t="str">
         <f>JSModerno!B18</f>
         <v>22:48:00</v>
       </c>
-      <c r="D3" s="57" t="str">
+      <c r="D3" s="55" t="str">
         <f>JSModerno!C18</f>
         <v>1:44:00</v>
       </c>
-      <c r="E3" s="44" t="str">
+      <c r="E3" s="42" t="str">
         <f>JSModerno!D18</f>
         <v>21:04:00</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="B4" s="61" t="str">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="85" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="59" t="str">
         <f>PythonTotal!A1</f>
         <v>Python TOTAL - Programador avanzado en 16 días</v>
       </c>
-      <c r="C4" s="49" t="str">
+      <c r="C4" s="47" t="str">
         <f>PythonTotal!B19</f>
         <v>30:40:00</v>
       </c>
-      <c r="D4" s="57" t="str">
+      <c r="D4" s="55" t="str">
         <f>PythonTotal!C19</f>
         <v>2:40:00</v>
       </c>
-      <c r="E4" s="44" t="str">
+      <c r="E4" s="42" t="str">
         <f>PythonTotal!D19</f>
         <v>28:00:00</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="B5" s="61" t="str">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="59" t="str">
         <f>ExpRegDesaWeb!A1</f>
         <v>Aprende Expresiones regulares para el desarrollo WEB</v>
       </c>
-      <c r="C5" s="49" t="str">
+      <c r="C5" s="47" t="str">
         <f>ExpRegDesaWeb!B14</f>
         <v>5:56:00</v>
       </c>
-      <c r="D5" s="37" t="str">
+      <c r="D5" s="36" t="str">
         <f>ExpRegDesaWeb!C14</f>
         <v>0:00:00</v>
       </c>
-      <c r="E5" s="44" t="str">
+      <c r="E5" s="42" t="str">
         <f>ExpRegDesaWeb!D14</f>
         <v>5:56:00</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="B6" s="61" t="str">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="59" t="str">
         <f>Bootstrap4!A1</f>
         <v>Experto en Bootstrap 4 en 7 días</v>
       </c>
-      <c r="C6" s="49" t="str">
+      <c r="C6" s="47" t="str">
         <f>Bootstrap4!B13</f>
         <v>20:51:00</v>
       </c>
-      <c r="D6" s="37" t="str">
+      <c r="D6" s="36" t="str">
         <f>Bootstrap4!C13</f>
         <v>0:00:00</v>
       </c>
-      <c r="E6" s="44" t="str">
+      <c r="E6" s="42" t="str">
         <f>Bootstrap4!D13</f>
         <v>20:51:00</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="B7" s="61" t="str">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="59" t="str">
         <f>'Html&amp;CSS_CeroAvanzado'!A1</f>
         <v xml:space="preserve">Curso de Diseño Web: HTML y CSS desde cero hasta avanzado. </v>
       </c>
-      <c r="C7" s="49" t="str">
+      <c r="C7" s="47" t="str">
         <f>'Html&amp;CSS_CeroAvanzado'!B10</f>
         <v>27:03:00</v>
       </c>
-      <c r="D7" s="37" t="str">
+      <c r="D7" s="36" t="str">
         <f>'Html&amp;CSS_CeroAvanzado'!C10</f>
         <v>0:00:00</v>
       </c>
-      <c r="E7" s="44" t="str">
+      <c r="E7" s="42" t="str">
         <f>'Html&amp;CSS_CeroAvanzado'!D10</f>
         <v>27:03:00</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="B8" s="61" t="str">
+      <c r="A8" s="85" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" s="82" t="str">
         <f>MasterEnCSS!A1</f>
         <v>Master en CSS: Responsive, SAAS, Flexbox, Grid y Bootstrap</v>
       </c>
-      <c r="C8" s="49" t="str">
+      <c r="C8" s="47" t="str">
         <f>MasterEnCSS!B49</f>
         <v>20:28:00</v>
       </c>
-      <c r="D8" s="37" t="str">
+      <c r="D8" s="36" t="str">
         <f>MasterEnCSS!C49</f>
         <v>0:10:00</v>
       </c>
-      <c r="E8" s="44" t="str">
+      <c r="E8" s="42" t="str">
         <f>MasterEnCSS!D49</f>
         <v>20:18:00</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="B9" s="61" t="str">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="59" t="str">
         <f>UIConFigma!A1</f>
         <v>Aprende diseño de interfaz (UI) con Figma</v>
       </c>
-      <c r="C9" s="49" t="str">
+      <c r="C9" s="47" t="str">
         <f>UIConFigma!B13</f>
         <v>7:45:00</v>
       </c>
-      <c r="D9" s="37" t="str">
+      <c r="D9" s="36" t="str">
         <f>UIConFigma!C13</f>
         <v>0:00:00</v>
       </c>
-      <c r="E9" s="44" t="str">
+      <c r="E9" s="42" t="str">
         <f>UIConFigma!D13</f>
         <v>7:45:00</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="61" t="str">
+      <c r="A10" s="85" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10" s="82" t="str">
         <f>GitGitHub!A1</f>
-        <v>Curso Git + GitHub (Udemy)</v>
-      </c>
-      <c r="C10" s="49" t="str">
+        <v xml:space="preserve">Curso Git + GitHub </v>
+      </c>
+      <c r="C10" s="47" t="str">
         <f>GitGitHub!B16</f>
         <v>11:57:00</v>
       </c>
-      <c r="D10" s="37" t="str">
+      <c r="D10" s="36" t="str">
         <f>GitGitHub!C16</f>
         <v>2:58:00</v>
       </c>
-      <c r="E10" s="44" t="str">
+      <c r="E10" s="42" t="str">
         <f>GitGitHub!D16</f>
         <v>8:59:00</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="B11" s="61" t="str">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="85" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="59" t="str">
         <f>Docker!A1</f>
         <v xml:space="preserve">Docker Guía práctica de uso para desarrolladores </v>
       </c>
-      <c r="C11" s="49" t="str">
+      <c r="C11" s="47" t="str">
         <f>Docker!B13</f>
         <v>13:59:00</v>
       </c>
-      <c r="D11" s="37" t="str">
+      <c r="D11" s="36" t="str">
         <f>Docker!C13</f>
         <v>4:14:00</v>
       </c>
-      <c r="E11" s="44" t="str">
+      <c r="E11" s="42" t="str">
         <f>Docker!D13</f>
         <v>9:45:00</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="B12" s="61" t="str">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="85" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="59" t="str">
         <f>NodeCeroExperto!A1</f>
         <v>Node: De cero a experto</v>
       </c>
-      <c r="C12" s="37" t="str">
+      <c r="C12" s="36" t="str">
         <f>NodeCeroExperto!B21</f>
         <v>31:16:00</v>
       </c>
-      <c r="D12" s="37" t="str">
+      <c r="D12" s="36" t="str">
         <f>NodeCeroExperto!C21</f>
         <v>0:00:00</v>
       </c>
-      <c r="E12" s="44" t="str">
+      <c r="E12" s="42" t="str">
         <f>NodeCeroExperto!D21</f>
         <v>31:16:00</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="B13" s="80" t="str">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" s="83" t="str">
         <f>HtmlCssBootcamp2023!A1</f>
         <v>The HTML &amp; CSS Bootcamp 2023 Edition</v>
       </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="82"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="86"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="79"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="85"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
-      <c r="B15" s="45" t="s">
-        <v>166</v>
-      </c>
-      <c r="C15" s="53" t="str">
+      <c r="A14" s="87" t="s">
+        <v>224</v>
+      </c>
+      <c r="B14" s="88" t="str">
+        <f>TC2023WDB!A1</f>
+        <v>The Complete 2023 Web Development Bootcamp</v>
+      </c>
+      <c r="C14" s="89"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="91"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="44"/>
+      <c r="B15" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="51" t="str">
         <f>TEXT(SUM(JQueryFH!B2:'JQueryFH'!B9) + SUM(JSModerno!B12:'JSModerno'!B17) + SUM(PythonTotal!B2:'PythonTotal'!B18) + SUM(ExpRegDesaWeb!B2:'ExpRegDesaWeb'!B13) + SUM(Bootstrap4!B2:'Bootstrap4'!B12) + SUM('Html&amp;CSS_CeroAvanzado'!B2:'Html&amp;CSS_CeroAvanzado'!B9) + SUM(MasterEnCSS!B2:'MasterEnCSS'!B45) + SUM(UIConFigma!B2:'UIConFigma'!B12) + SUM(GitGitHub!B2:'GitGitHub'!B15) + SUM(Docker!B2:'Docker'!B12) + SUM(NodeCeroExperto!B2:'NodeCeroExperto'!B20),"[h]:mm:ss")</f>
         <v>187:09:00</v>
       </c>
-      <c r="D15" s="51" t="str">
+      <c r="D15" s="49" t="str">
         <f>TEXT(SUM(JQueryFH!C2:'JQueryFH'!C9) + SUM(JSModerno!C12:'JSModerno'!C17) + SUM(PythonTotal!C2:'PythonTotal'!C18) + SUM(ExpRegDesaWeb!C2:'ExpRegDesaWeb'!C13) + SUM(Bootstrap4!C2:'Bootstrap4'!C12) + SUM('Html&amp;CSS_CeroAvanzado'!C2:'Html&amp;CSS_CeroAvanzado'!C9) + SUM(MasterEnCSS!C2:'MasterEnCSS'!C45) + SUM(UIConFigma!C2:'UIConFigma'!C12) + SUM(GitGitHub!C2:'GitGitHub'!C15) + SUM(Docker!C2:'Docker'!C12) + SUM(NodeCeroExperto!C2:'NodeCeroExperto'!C20),"[h]:mm:ss")</f>
         <v>10:02:00</v>
       </c>
-      <c r="E15" s="52" t="str">
+      <c r="E15" s="50" t="str">
         <f>TEXT(SUM(JQueryFH!D2:'JQueryFH'!D9) + SUM(JSModerno!D12:'JSModerno'!D17) + SUM(PythonTotal!D2:'PythonTotal'!D18) + SUM(ExpRegDesaWeb!D2:'ExpRegDesaWeb'!D13) + SUM(Bootstrap4!D2:'Bootstrap4'!D12) + SUM('Html&amp;CSS_CeroAvanzado'!D2:'Html&amp;CSS_CeroAvanzado'!D9) + SUM(MasterEnCSS!D2:'MasterEnCSS'!D45) + SUM(UIConFigma!D2:'UIConFigma'!D12) + SUM(GitGitHub!D2:'GitGitHub'!D15) + SUM(Docker!D2:'Docker'!D12) + SUM(NodeCeroExperto!C2:'NodeCeroExperto'!C20),"[h]:mm:ss")</f>
         <v>145:51:00</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E12" xr:uid="{6CE2FBCE-1D7D-49D7-95D0-8F4AD5AC5BCE}"/>
+  <autoFilter ref="A1:E15" xr:uid="{6CE2FBCE-1D7D-49D7-95D0-8F4AD5AC5BCE}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="FrontEnd *"/>
+        <filter val="Repositorio"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="B3" location="JSModerno!A1" display="JSModerno!A1" xr:uid="{7A969453-90DB-4BE7-A822-75B59E87D2E3}"/>
     <hyperlink ref="B2" location="JQueryFH!A1" display="JQueryFH!A1" xr:uid="{1B64EE58-C830-45F9-ACF9-683CD9C8F44A}"/>
@@ -1923,6 +2038,7 @@
     <hyperlink ref="B11" location="Docker!A1" display="Docker!A1" xr:uid="{B8AAC50E-433A-401E-80F4-6AB2838B6238}"/>
     <hyperlink ref="B12" location="NodeCeroExperto!A1" display="NodeCeroExperto!A1" xr:uid="{1B3FD2FD-2F13-4A1B-A188-D5FDB106FF34}"/>
     <hyperlink ref="B13" location="HtmlCssBootcamp2023!A1" display="HtmlCssBootcamp2023!A1" xr:uid="{90C2BF2D-BA60-4EC4-9EB4-31B86388ACFF}"/>
+    <hyperlink ref="B14" location="TC2023WDB!A1" display="TC2023WDB!A1" xr:uid="{ABFD3902-FC9E-4DA8-9DE4-E16D6F8409CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1930,6 +2046,245 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D736F250-17C4-4B20-9075-74FB8A9D5BFA}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="80.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0</v>
+      </c>
+      <c r="D2" s="32">
+        <f>B2-C2</f>
+        <v>1.5277777777777777E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0</v>
+      </c>
+      <c r="D3" s="33">
+        <f t="shared" ref="D3:D13" si="0">B3-C3</f>
+        <v>1.5277777777777777E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="11">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="33">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0</v>
+      </c>
+      <c r="D5" s="33">
+        <f t="shared" si="0"/>
+        <v>1.5277777777777777E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="33">
+        <f t="shared" si="0"/>
+        <v>1.5277777777777777E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="11">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0</v>
+      </c>
+      <c r="D7" s="33">
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="11">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="33">
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="11">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0</v>
+      </c>
+      <c r="D9" s="33">
+        <f t="shared" si="0"/>
+        <v>9.7222222222222224E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="11">
+        <v>5.4166666666666669E-2</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0</v>
+      </c>
+      <c r="D10" s="33">
+        <f t="shared" si="0"/>
+        <v>5.4166666666666669E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="11">
+        <v>2.361111111111111E-2</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="33">
+        <f t="shared" si="0"/>
+        <v>2.361111111111111E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="11">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0</v>
+      </c>
+      <c r="D12" s="33">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888889E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="11">
+        <v>5.4166666666666669E-2</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0</v>
+      </c>
+      <c r="D13" s="34">
+        <f t="shared" si="0"/>
+        <v>5.4166666666666669E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="12" t="str">
+        <f>TEXT(SUM(B2:B13), "[h]:mm:ss")</f>
+        <v>5:56:00</v>
+      </c>
+      <c r="C14" s="12" t="str">
+        <f>TEXT(SUM(C2:C13), "[h]:mm:ss")</f>
+        <v>0:00:00</v>
+      </c>
+      <c r="D14" s="26" t="str">
+        <f>TEXT(SUM(D2:D13), "[h]:mm:ss")</f>
+        <v>5:56:00</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Cursos!A1" display="Volver Cursos" xr:uid="{F243C22D-6AFD-4897-8CC3-265DCED094A6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B9A018-DB6C-4921-8026-8986BD095FBF}">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -1948,24 +2303,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" s="63" t="s">
-        <v>193</v>
+        <v>161</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B2" s="10">
         <v>3.2638888888888891E-2</v>
@@ -1973,14 +2328,14 @@
       <c r="C2" s="10">
         <v>0</v>
       </c>
-      <c r="D2" s="33">
+      <c r="D2" s="32">
         <f>B2-C2</f>
         <v>3.2638888888888891E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B3" s="11">
         <v>0.18194444444444444</v>
@@ -1988,14 +2343,14 @@
       <c r="C3" s="11">
         <v>0</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="33">
         <f t="shared" ref="D3:D12" si="0">B3-C3</f>
         <v>0.18194444444444444</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B4" s="11">
         <v>0.15972222222222224</v>
@@ -2003,14 +2358,14 @@
       <c r="C4" s="11">
         <v>0</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="33">
         <f t="shared" si="0"/>
         <v>0.15972222222222224</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B5" s="11">
         <v>7.4305555555555555E-2</v>
@@ -2018,14 +2373,14 @@
       <c r="C5" s="11">
         <v>0</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="33">
         <f t="shared" si="0"/>
         <v>7.4305555555555555E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B6" s="11">
         <v>7.1527777777777787E-2</v>
@@ -2033,14 +2388,14 @@
       <c r="C6" s="11">
         <v>0</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="33">
         <f t="shared" si="0"/>
         <v>7.1527777777777787E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B7" s="11">
         <v>3.9583333333333331E-2</v>
@@ -2048,14 +2403,14 @@
       <c r="C7" s="11">
         <v>0</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="33">
         <f t="shared" si="0"/>
         <v>3.9583333333333331E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B8" s="11">
         <v>3.5416666666666666E-2</v>
@@ -2063,14 +2418,14 @@
       <c r="C8" s="11">
         <v>0</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="33">
         <f t="shared" si="0"/>
         <v>3.5416666666666666E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B9" s="11">
         <v>2.0833333333333332E-2</v>
@@ -2078,14 +2433,14 @@
       <c r="C9" s="11">
         <v>0</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="33">
         <f t="shared" si="0"/>
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B10" s="11">
         <v>0.16666666666666666</v>
@@ -2093,14 +2448,14 @@
       <c r="C10" s="11">
         <v>0</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="33">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B11" s="11">
         <v>3.888888888888889E-2</v>
@@ -2108,14 +2463,14 @@
       <c r="C11" s="11">
         <v>0</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="33">
         <f t="shared" si="0"/>
         <v>3.888888888888889E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B12" s="11">
         <v>4.7222222222222221E-2</v>
@@ -2123,14 +2478,14 @@
       <c r="C12" s="11">
         <v>0</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="34">
         <f t="shared" si="0"/>
         <v>4.7222222222222221E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="12" t="str">
         <f>TEXT(SUM(B2:B12), "[h]:mm:ss")</f>
@@ -2140,7 +2495,7 @@
         <f>TEXT(SUM(C2:C12), "[h]:mm:ss")</f>
         <v>0:00:00</v>
       </c>
-      <c r="D13" s="27" t="str">
+      <c r="D13" s="26" t="str">
         <f>TEXT(SUM(D2:D12), "[h]:mm:ss")</f>
         <v>20:51:00</v>
       </c>
@@ -2153,7 +2508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BCE2FA-5737-49A8-9CB5-A27B1D850847}">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -2172,24 +2527,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="E1" s="63" t="s">
-        <v>193</v>
+        <v>162</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="10">
         <v>3.472222222222222E-3</v>
@@ -2197,14 +2552,14 @@
       <c r="C2" s="10">
         <v>0</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D2" s="35">
         <f>B2-C2</f>
         <v>3.472222222222222E-3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="11">
         <v>4.1666666666666664E-2</v>
@@ -2212,14 +2567,14 @@
       <c r="C3" s="11">
         <v>0</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="30">
         <f t="shared" ref="D3:D12" si="0">B3-C3</f>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="11">
         <v>6.25E-2</v>
@@ -2227,14 +2582,14 @@
       <c r="C4" s="11">
         <v>0</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="30">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="11">
         <v>1.5277777777777777E-2</v>
@@ -2242,14 +2597,14 @@
       <c r="C5" s="11">
         <v>0</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="30">
         <f t="shared" si="0"/>
         <v>1.5277777777777777E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="11">
         <v>0.10208333333333335</v>
@@ -2257,14 +2612,14 @@
       <c r="C6" s="11">
         <v>0</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="30">
         <f t="shared" si="0"/>
         <v>0.10208333333333335</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="11">
         <v>1.8749999999999999E-2</v>
@@ -2272,14 +2627,14 @@
       <c r="C7" s="11">
         <v>0</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="30">
         <f t="shared" si="0"/>
         <v>1.8749999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="11">
         <v>1.3194444444444444E-2</v>
@@ -2287,14 +2642,14 @@
       <c r="C8" s="11">
         <v>0</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="30">
         <f t="shared" si="0"/>
         <v>1.3194444444444444E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="11">
         <v>1.3194444444444444E-2</v>
@@ -2302,14 +2657,14 @@
       <c r="C9" s="11">
         <v>0</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="30">
         <f t="shared" si="0"/>
         <v>1.3194444444444444E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="11">
         <v>1.0416666666666666E-2</v>
@@ -2317,14 +2672,14 @@
       <c r="C10" s="11">
         <v>0</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="30">
         <f t="shared" si="0"/>
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" s="11">
         <v>4.0972222222222222E-2</v>
@@ -2332,14 +2687,14 @@
       <c r="C11" s="11">
         <v>0</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="30">
         <f t="shared" si="0"/>
         <v>4.0972222222222222E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12" s="11">
         <v>1.3888888888888889E-3</v>
@@ -2347,14 +2702,14 @@
       <c r="C12" s="11">
         <v>0</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="31">
         <f t="shared" si="0"/>
         <v>1.3888888888888889E-3</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="12" t="str">
         <f>TEXT(SUM(B2:B12), "[h]:mm:ss")</f>
@@ -2364,7 +2719,7 @@
         <f>TEXT(SUM(C2:C12), "[h]:mm:ss")</f>
         <v>0:00:00</v>
       </c>
-      <c r="D13" s="30" t="str">
+      <c r="D13" s="29" t="str">
         <f>TEXT(SUM(D2:D12), "[h]:mm:ss")</f>
         <v>7:45:00</v>
       </c>
@@ -2377,7 +2732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -2395,19 +2750,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>7</v>
+        <v>226</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" s="63" t="s">
-        <v>193</v>
+        <v>161</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2420,7 +2775,7 @@
       <c r="C2" s="16">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D2" s="35">
         <f>B2-C2</f>
         <v>0</v>
       </c>
@@ -2435,7 +2790,7 @@
       <c r="C3" s="17">
         <v>6.3194444444444442E-2</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="30">
         <f t="shared" ref="D3:D15" si="0">B3-C3</f>
         <v>0</v>
       </c>
@@ -2450,7 +2805,7 @@
       <c r="C4" s="17">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2465,7 +2820,7 @@
       <c r="C5" s="18">
         <v>4.8611111111111112E-3</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="30">
         <f t="shared" si="0"/>
         <v>3.0555555555555555E-2</v>
       </c>
@@ -2480,7 +2835,7 @@
       <c r="C6" s="18">
         <v>0</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="30">
         <f t="shared" si="0"/>
         <v>4.6527777777777779E-2</v>
       </c>
@@ -2495,14 +2850,14 @@
       <c r="C7" s="18">
         <v>0</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="30">
         <f t="shared" si="0"/>
         <v>6.0416666666666667E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="18">
         <v>4.7916666666666663E-2</v>
@@ -2510,14 +2865,14 @@
       <c r="C8" s="18">
         <v>0</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="30">
         <f t="shared" si="0"/>
         <v>4.7916666666666663E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="18">
         <v>7.4305555555555555E-2</v>
@@ -2525,14 +2880,14 @@
       <c r="C9" s="18">
         <v>0</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="30">
         <f t="shared" si="0"/>
         <v>7.4305555555555555E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="18">
         <v>3.0555555555555555E-2</v>
@@ -2540,14 +2895,14 @@
       <c r="C10" s="18">
         <v>0</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="30">
         <f t="shared" si="0"/>
         <v>3.0555555555555555E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="18">
         <v>2.9166666666666664E-2</v>
@@ -2555,14 +2910,14 @@
       <c r="C11" s="18">
         <v>0</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="30">
         <f t="shared" si="0"/>
         <v>2.9166666666666664E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="18">
         <v>2.0833333333333332E-2</v>
@@ -2570,14 +2925,14 @@
       <c r="C12" s="18">
         <v>0</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="30">
         <f t="shared" si="0"/>
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="18">
         <v>1.3194444444444444E-2</v>
@@ -2585,14 +2940,14 @@
       <c r="C13" s="18">
         <v>0</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="30">
         <f t="shared" si="0"/>
         <v>1.3194444444444444E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="18">
         <v>3.472222222222222E-3</v>
@@ -2600,14 +2955,14 @@
       <c r="C14" s="18">
         <v>0</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="30">
         <f t="shared" si="0"/>
         <v>3.472222222222222E-3</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="19">
         <v>1.7361111111111112E-2</v>
@@ -2615,14 +2970,14 @@
       <c r="C15" s="19">
         <v>0</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="31">
         <f t="shared" si="0"/>
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="12" t="str">
         <f>TEXT(SUM(B2:B15), "[h]:mm:ss")</f>
@@ -2632,7 +2987,7 @@
         <f>TEXT(SUM(C2:C15), "[h]:mm:ss")</f>
         <v>2:58:00</v>
       </c>
-      <c r="D16" s="30" t="str">
+      <c r="D16" s="29" t="str">
         <f>TEXT(SUM(D2:D15), "[h]:mm:ss")</f>
         <v>8:59:00</v>
       </c>
@@ -2646,7 +3001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66056C6-005F-4794-9744-8187C6A38D05}">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -2664,24 +3019,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" s="63" t="s">
-        <v>193</v>
+        <v>161</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="16">
         <v>2.2916666666666669E-2</v>
@@ -2689,14 +3044,14 @@
       <c r="C2" s="16">
         <v>2.2916666666666669E-2</v>
       </c>
-      <c r="D2" s="33">
+      <c r="D2" s="32">
         <f>B2-C2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="17">
         <v>5.2083333333333336E-2</v>
@@ -2704,14 +3059,14 @@
       <c r="C3" s="17">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="33">
         <f t="shared" ref="D3:D12" si="0">B3-C3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="17">
         <v>5.8333333333333327E-2</v>
@@ -2719,14 +3074,14 @@
       <c r="C4" s="17">
         <v>5.8333333333333327E-2</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="18">
         <v>7.7777777777777779E-2</v>
@@ -2734,14 +3089,14 @@
       <c r="C5" s="18">
         <v>4.3055555555555562E-2</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="33">
         <f t="shared" si="0"/>
         <v>3.4722222222222217E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="18">
         <v>9.7222222222222224E-2</v>
@@ -2749,14 +3104,14 @@
       <c r="C6" s="18">
         <v>0</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="33">
         <f t="shared" si="0"/>
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="18">
         <v>6.1111111111111116E-2</v>
@@ -2764,14 +3119,14 @@
       <c r="C7" s="18">
         <v>0</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="33">
         <f t="shared" si="0"/>
         <v>6.1111111111111116E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="18">
         <v>5.6250000000000001E-2</v>
@@ -2779,14 +3134,14 @@
       <c r="C8" s="18">
         <v>0</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="33">
         <f t="shared" si="0"/>
         <v>5.6250000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="18">
         <v>4.8611111111111112E-2</v>
@@ -2794,14 +3149,14 @@
       <c r="C9" s="18">
         <v>0</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="33">
         <f t="shared" si="0"/>
         <v>4.8611111111111112E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="18">
         <v>3.2638888888888891E-2</v>
@@ -2809,14 +3164,14 @@
       <c r="C10" s="18">
         <v>0</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="33">
         <f t="shared" si="0"/>
         <v>3.2638888888888891E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="18">
         <v>7.2222222222222229E-2</v>
@@ -2824,14 +3179,14 @@
       <c r="C11" s="18">
         <v>0</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="33">
         <f t="shared" si="0"/>
         <v>7.2222222222222229E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="19">
         <v>3.472222222222222E-3</v>
@@ -2839,14 +3194,14 @@
       <c r="C12" s="19">
         <v>0</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="34">
         <f t="shared" si="0"/>
         <v>3.472222222222222E-3</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="12" t="str">
         <f>TEXT(SUM(B2:B12), "[h]:mm:ss")</f>
@@ -2856,7 +3211,7 @@
         <f>TEXT(SUM(C2:C12), "[h]:mm:ss")</f>
         <v>4:14:00</v>
       </c>
-      <c r="D13" s="27" t="str">
+      <c r="D13" s="26" t="str">
         <f>TEXT(SUM(D2:D12), "[h]:mm:ss")</f>
         <v>9:45:00</v>
       </c>
@@ -2870,6 +3225,376 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B80DA1-296E-434B-BF4F-53A72E31519B}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="68.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="77" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="78" t="str">
+        <f>TEXT(SUM(B3:B11), "[h]:mm:ss")</f>
+        <v>0:38:00</v>
+      </c>
+      <c r="C2" s="78" t="str">
+        <f>TEXT(SUM(C3:C11), "[h]:mm:ss")</f>
+        <v>0:00:00</v>
+      </c>
+      <c r="D2" s="79">
+        <f>B2-C2</f>
+        <v>2.6388888888888889E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="11">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0</v>
+      </c>
+      <c r="D3" s="30">
+        <f t="shared" ref="D3:D11" si="0">B3-C3</f>
+        <v>2.0833333333333333E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="11">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="30">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444447E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="11">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0</v>
+      </c>
+      <c r="D5" s="30">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444447E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" s="11">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="30">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444447E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" s="11">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0</v>
+      </c>
+      <c r="D7" s="30">
+        <f t="shared" si="0"/>
+        <v>3.472222222222222E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8" s="11">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="30">
+        <f t="shared" si="0"/>
+        <v>5.5555555555555558E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="11">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0</v>
+      </c>
+      <c r="D9" s="30">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444441E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="11">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0</v>
+      </c>
+      <c r="D10" s="30">
+        <f t="shared" si="0"/>
+        <v>4.8611111111111112E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B11" s="11">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="30">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888889E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="B12" s="78" t="str">
+        <f>TEXT(SUM(B13:B20), "[h]:mm:ss")</f>
+        <v>0:51:00</v>
+      </c>
+      <c r="C12" s="78" t="str">
+        <f>TEXT(SUM(C13:C20), "[h]:mm:ss")</f>
+        <v>0:00:00</v>
+      </c>
+      <c r="D12" s="79">
+        <f>B12-C12</f>
+        <v>3.5416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" s="11">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0</v>
+      </c>
+      <c r="D13" s="30">
+        <f t="shared" ref="D13:D20" si="1">B13-C13</f>
+        <v>1.3888888888888889E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B14" s="11">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0</v>
+      </c>
+      <c r="D14" s="30">
+        <f t="shared" si="1"/>
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B15" s="11">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0</v>
+      </c>
+      <c r="D15" s="30">
+        <f t="shared" si="1"/>
+        <v>2.0833333333333333E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B16" s="11">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0</v>
+      </c>
+      <c r="D16" s="30">
+        <f t="shared" si="1"/>
+        <v>9.7222222222222224E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B17" s="11">
+        <v>6.2499999999999995E-3</v>
+      </c>
+      <c r="C17" s="11">
+        <v>0</v>
+      </c>
+      <c r="D17" s="30">
+        <f t="shared" si="1"/>
+        <v>6.2499999999999995E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B18" s="11">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="C18" s="11">
+        <v>0</v>
+      </c>
+      <c r="D18" s="30">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B19" s="11">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="C19" s="11">
+        <v>0</v>
+      </c>
+      <c r="D19" s="30">
+        <f t="shared" si="1"/>
+        <v>4.1666666666666666E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B20" s="11">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="C20" s="11">
+        <v>0</v>
+      </c>
+      <c r="D20" s="30">
+        <f t="shared" si="1"/>
+        <v>6.9444444444444447E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="77" t="s">
+        <v>216</v>
+      </c>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="81"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="30"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="30"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="31"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12" t="str">
+        <f>TEXT(SUM(C2:C24), "[h]:mm:ss")</f>
+        <v>0:00:00</v>
+      </c>
+      <c r="D25" s="29" t="str">
+        <f>TEXT(SUM(D2:D24), "[h]:mm:ss")</f>
+        <v>2:58:00</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Cursos!A1" display="Volver Cursos" xr:uid="{89A0D074-B237-450D-B8EA-B0223B6E6196}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DEDBD2F-DA68-4A01-A25C-CAD575883754}">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -2888,54 +3613,54 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" s="63" t="s">
-        <v>193</v>
+        <v>161</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="56">
+      <c r="A2" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="54">
         <v>1.1805555555555555E-2</v>
       </c>
-      <c r="C2" s="56">
+      <c r="C2" s="54">
         <v>1.1805555555555555E-2</v>
       </c>
-      <c r="D2" s="56">
+      <c r="D2" s="54">
         <f>B2-C2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="59">
+      <c r="A3" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="57">
         <v>6.0416666666666667E-2</v>
       </c>
-      <c r="C3" s="59">
+      <c r="C3" s="57">
         <v>6.0416666666666667E-2</v>
       </c>
-      <c r="D3" s="59">
+      <c r="D3" s="57">
         <f t="shared" ref="D3:D17" si="0">B3-C3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B4" s="11">
         <v>8.4722222222222213E-2</v>
@@ -2943,14 +3668,14 @@
       <c r="C4" s="11">
         <v>0</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="33">
         <f t="shared" si="0"/>
         <v>8.4722222222222213E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B5" s="11">
         <v>6.7361111111111108E-2</v>
@@ -2958,14 +3683,14 @@
       <c r="C5" s="11">
         <v>0</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="33">
         <f t="shared" si="0"/>
         <v>6.7361111111111108E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B6" s="11">
         <v>8.4722222222222213E-2</v>
@@ -2973,14 +3698,14 @@
       <c r="C6" s="11">
         <v>0</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="33">
         <f t="shared" si="0"/>
         <v>8.4722222222222213E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B7" s="11">
         <v>3.9583333333333331E-2</v>
@@ -2988,14 +3713,14 @@
       <c r="C7" s="11">
         <v>0</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="33">
         <f t="shared" si="0"/>
         <v>3.9583333333333331E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B8" s="11">
         <v>5.9027777777777783E-2</v>
@@ -3003,14 +3728,14 @@
       <c r="C8" s="11">
         <v>0</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="33">
         <f t="shared" si="0"/>
         <v>5.9027777777777783E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B9" s="11">
         <v>8.4722222222222213E-2</v>
@@ -3018,14 +3743,14 @@
       <c r="C9" s="11">
         <v>0</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="33">
         <f t="shared" si="0"/>
         <v>8.4722222222222213E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B10" s="11">
         <v>2.6388888888888889E-2</v>
@@ -3033,14 +3758,14 @@
       <c r="C10" s="11">
         <v>0</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="33">
         <f t="shared" si="0"/>
         <v>2.6388888888888889E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B11" s="11">
         <v>0.10347222222222223</v>
@@ -3048,14 +3773,14 @@
       <c r="C11" s="11">
         <v>0</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="33">
         <f t="shared" si="0"/>
         <v>0.10347222222222223</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B12" s="11">
         <v>8.9583333333333334E-2</v>
@@ -3063,14 +3788,14 @@
       <c r="C12" s="11">
         <v>0</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="33">
         <f t="shared" si="0"/>
         <v>8.9583333333333334E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B13" s="11">
         <v>2.2916666666666669E-2</v>
@@ -3078,14 +3803,14 @@
       <c r="C13" s="11">
         <v>0</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="33">
         <f t="shared" si="0"/>
         <v>2.2916666666666669E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B14" s="11">
         <v>0.10972222222222222</v>
@@ -3093,14 +3818,14 @@
       <c r="C14" s="11">
         <v>0</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="33">
         <f t="shared" si="0"/>
         <v>0.10972222222222222</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B15" s="11">
         <v>2.2222222222222223E-2</v>
@@ -3108,14 +3833,14 @@
       <c r="C15" s="11">
         <v>0</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="33">
         <f t="shared" si="0"/>
         <v>2.2222222222222223E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B16" s="11">
         <v>2.0833333333333333E-3</v>
@@ -3123,14 +3848,14 @@
       <c r="C16" s="11">
         <v>0</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="33">
         <f t="shared" si="0"/>
         <v>2.0833333333333333E-3</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B17" s="11">
         <v>8.1250000000000003E-2</v>
@@ -3138,14 +3863,14 @@
       <c r="C17" s="11">
         <v>0</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="34">
         <f t="shared" si="0"/>
         <v>8.1250000000000003E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="12" t="str">
         <f>TEXT(SUM(B2:B17), "[h]:mm:ss")</f>
@@ -3155,7 +3880,7 @@
         <f>TEXT(SUM(C2:C17), "[h]:mm:ss")</f>
         <v>1:44:00</v>
       </c>
-      <c r="D18" s="27" t="str">
+      <c r="D18" s="26" t="str">
         <f>TEXT(SUM(D2:D17), "[h]:mm:ss")</f>
         <v>21:04:00</v>
       </c>
@@ -3169,12 +3894,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC3CB10-80C1-4594-9C8E-87455BFA22B5}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3188,24 +3913,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" s="63" t="s">
-        <v>193</v>
+        <v>161</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="10">
         <v>1.3888888888888888E-2</v>
@@ -3220,7 +3945,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B3" s="11">
         <v>2.9861111111111113E-2</v>
@@ -3235,7 +3960,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B4" s="11">
         <v>5.8333333333333327E-2</v>
@@ -3243,14 +3968,14 @@
       <c r="C4" s="11">
         <v>0</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="33">
         <f t="shared" si="0"/>
         <v>5.8333333333333327E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B5" s="11">
         <v>7.2222222222222229E-2</v>
@@ -3258,14 +3983,14 @@
       <c r="C5" s="11">
         <v>0</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="33">
         <f t="shared" si="0"/>
         <v>7.2222222222222229E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B6" s="11">
         <v>0.10555555555555556</v>
@@ -3273,14 +3998,14 @@
       <c r="C6" s="11">
         <v>0</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="33">
         <f t="shared" si="0"/>
         <v>0.10555555555555556</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B7" s="11">
         <v>7.6388888888888895E-2</v>
@@ -3288,14 +4013,14 @@
       <c r="C7" s="11">
         <v>0</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="33">
         <f t="shared" si="0"/>
         <v>7.6388888888888895E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B8" s="11">
         <v>7.9166666666666663E-2</v>
@@ -3303,14 +4028,14 @@
       <c r="C8" s="11">
         <v>0</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="33">
         <f t="shared" si="0"/>
         <v>7.9166666666666663E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B9" s="11">
         <v>5.9722222222222225E-2</v>
@@ -3318,14 +4043,14 @@
       <c r="C9" s="11">
         <v>0</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="33">
         <f t="shared" si="0"/>
         <v>5.9722222222222225E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B10" s="11">
         <v>0.11319444444444444</v>
@@ -3333,14 +4058,14 @@
       <c r="C10" s="11">
         <v>0</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="33">
         <f t="shared" si="0"/>
         <v>0.11319444444444444</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B11" s="11">
         <v>6.8749999999999992E-2</v>
@@ -3348,14 +4073,14 @@
       <c r="C11" s="11">
         <v>0</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="33">
         <f t="shared" si="0"/>
         <v>6.8749999999999992E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B12" s="11">
         <v>4.2361111111111106E-2</v>
@@ -3363,14 +4088,14 @@
       <c r="C12" s="11">
         <v>0</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="33">
         <f t="shared" si="0"/>
         <v>4.2361111111111106E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B13" s="11">
         <v>8.6111111111111124E-2</v>
@@ -3378,14 +4103,14 @@
       <c r="C13" s="11">
         <v>0</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="33">
         <f t="shared" si="0"/>
         <v>8.6111111111111124E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B14" s="11">
         <v>8.4722222222222213E-2</v>
@@ -3393,14 +4118,14 @@
       <c r="C14" s="11">
         <v>0</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="33">
         <f t="shared" si="0"/>
         <v>8.4722222222222213E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B15" s="11">
         <v>5.1388888888888894E-2</v>
@@ -3408,14 +4133,14 @@
       <c r="C15" s="11">
         <v>0</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="33">
         <f t="shared" si="0"/>
         <v>5.1388888888888894E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B16" s="11">
         <v>5.6250000000000001E-2</v>
@@ -3423,14 +4148,14 @@
       <c r="C16" s="11">
         <v>0</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="33">
         <f t="shared" si="0"/>
         <v>5.6250000000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B17" s="11">
         <v>8.1250000000000003E-2</v>
@@ -3438,14 +4163,14 @@
       <c r="C17" s="11">
         <v>0</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="34">
         <f t="shared" si="0"/>
         <v>8.1250000000000003E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B18" s="11">
         <v>6.1111111111111116E-2</v>
@@ -3453,14 +4178,14 @@
       <c r="C18" s="11">
         <v>0</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="34">
         <f t="shared" si="0"/>
         <v>6.1111111111111116E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B19" s="11">
         <v>8.6805555555555566E-2</v>
@@ -3468,14 +4193,14 @@
       <c r="C19" s="11">
         <v>0</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="34">
         <f t="shared" si="0"/>
         <v>8.6805555555555566E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B20" s="11">
         <v>7.5694444444444439E-2</v>
@@ -3483,14 +4208,14 @@
       <c r="C20" s="11">
         <v>0</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="34">
         <f t="shared" si="0"/>
         <v>7.5694444444444439E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="12" t="str">
         <f>TEXT(SUM(B2:B20), "[h]:mm:ss")</f>
@@ -3500,7 +4225,7 @@
         <f>TEXT(SUM(C2:C20), "[h]:mm:ss")</f>
         <v>0:00:00</v>
       </c>
-      <c r="D21" s="27" t="str">
+      <c r="D21" s="26" t="str">
         <f>TEXT(SUM(D2:D20), "[h]:mm:ss")</f>
         <v>31:16:00</v>
       </c>
@@ -3513,7 +4238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C4372C8-C649-40C9-916F-A16239E57916}">
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -3532,289 +4257,289 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" s="63" t="s">
-        <v>193</v>
+        <v>161</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B2" s="11">
         <v>4.0972222222222222E-2</v>
       </c>
-      <c r="C2" s="54">
+      <c r="C2" s="52">
         <v>4.0972222222222222E-2</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="24">
         <f>B2-C2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B3" s="11">
         <v>5.1388888888888894E-2</v>
       </c>
-      <c r="C3" s="54">
+      <c r="C3" s="52">
         <v>5.1388888888888894E-2</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="25">
         <f t="shared" ref="D3:D18" si="0">B3-C3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B4" s="11">
         <v>8.7500000000000008E-2</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="53">
         <v>1.8749999999999999E-2</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="25">
         <f t="shared" si="0"/>
         <v>6.8750000000000006E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B5" s="11">
         <v>9.375E-2</v>
       </c>
-      <c r="C5" s="28">
-        <v>0</v>
-      </c>
-      <c r="D5" s="26">
+      <c r="C5" s="27">
+        <v>0</v>
+      </c>
+      <c r="D5" s="25">
         <f t="shared" si="0"/>
         <v>9.375E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B6" s="11">
         <v>0.10347222222222223</v>
       </c>
-      <c r="C6" s="28">
-        <v>0</v>
-      </c>
-      <c r="D6" s="26">
+      <c r="C6" s="27">
+        <v>0</v>
+      </c>
+      <c r="D6" s="25">
         <f t="shared" si="0"/>
         <v>0.10347222222222223</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B7" s="11">
         <v>9.5833333333333326E-2</v>
       </c>
-      <c r="C7" s="28">
-        <v>0</v>
-      </c>
-      <c r="D7" s="26">
+      <c r="C7" s="27">
+        <v>0</v>
+      </c>
+      <c r="D7" s="25">
         <f t="shared" si="0"/>
         <v>9.5833333333333326E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B8" s="11">
         <v>7.7083333333333337E-2</v>
       </c>
-      <c r="C8" s="28">
-        <v>0</v>
-      </c>
-      <c r="D8" s="26">
+      <c r="C8" s="27">
+        <v>0</v>
+      </c>
+      <c r="D8" s="25">
         <f t="shared" si="0"/>
         <v>7.7083333333333337E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B9" s="11">
         <v>7.6388888888888895E-2</v>
       </c>
-      <c r="C9" s="28">
-        <v>0</v>
-      </c>
-      <c r="D9" s="26">
+      <c r="C9" s="27">
+        <v>0</v>
+      </c>
+      <c r="D9" s="25">
         <f t="shared" si="0"/>
         <v>7.6388888888888895E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B10" s="11">
         <v>7.6388888888888895E-2</v>
       </c>
-      <c r="C10" s="28">
-        <v>0</v>
-      </c>
-      <c r="D10" s="26">
+      <c r="C10" s="27">
+        <v>0</v>
+      </c>
+      <c r="D10" s="25">
         <f t="shared" si="0"/>
         <v>7.6388888888888895E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B11" s="11">
         <v>7.9166666666666663E-2</v>
       </c>
-      <c r="C11" s="28">
-        <v>0</v>
-      </c>
-      <c r="D11" s="26">
+      <c r="C11" s="27">
+        <v>0</v>
+      </c>
+      <c r="D11" s="25">
         <f t="shared" si="0"/>
         <v>7.9166666666666663E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B12" s="11">
         <v>5.6250000000000001E-2</v>
       </c>
-      <c r="C12" s="28">
-        <v>0</v>
-      </c>
-      <c r="D12" s="26">
+      <c r="C12" s="27">
+        <v>0</v>
+      </c>
+      <c r="D12" s="25">
         <f t="shared" si="0"/>
         <v>5.6250000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B13" s="11">
         <v>9.4444444444444442E-2</v>
       </c>
-      <c r="C13" s="28">
-        <v>0</v>
-      </c>
-      <c r="D13" s="26">
+      <c r="C13" s="27">
+        <v>0</v>
+      </c>
+      <c r="D13" s="25">
         <f t="shared" si="0"/>
         <v>9.4444444444444442E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B14" s="11">
         <v>4.7916666666666663E-2</v>
       </c>
-      <c r="C14" s="28">
-        <v>0</v>
-      </c>
-      <c r="D14" s="26">
+      <c r="C14" s="27">
+        <v>0</v>
+      </c>
+      <c r="D14" s="25">
         <f t="shared" si="0"/>
         <v>4.7916666666666663E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B15" s="11">
         <v>5.486111111111111E-2</v>
       </c>
-      <c r="C15" s="28">
-        <v>0</v>
-      </c>
-      <c r="D15" s="26">
+      <c r="C15" s="27">
+        <v>0</v>
+      </c>
+      <c r="D15" s="25">
         <f t="shared" si="0"/>
         <v>5.486111111111111E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B16" s="11">
         <v>8.9583333333333334E-2</v>
       </c>
-      <c r="C16" s="28">
-        <v>0</v>
-      </c>
-      <c r="D16" s="26">
+      <c r="C16" s="27">
+        <v>0</v>
+      </c>
+      <c r="D16" s="25">
         <f t="shared" si="0"/>
         <v>8.9583333333333334E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B17" s="11">
         <v>0.15069444444444444</v>
       </c>
-      <c r="C17" s="28">
-        <v>0</v>
-      </c>
-      <c r="D17" s="26">
+      <c r="C17" s="27">
+        <v>0</v>
+      </c>
+      <c r="D17" s="25">
         <f t="shared" si="0"/>
         <v>0.15069444444444444</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B18" s="11">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="C18" s="28">
-        <v>0</v>
-      </c>
-      <c r="D18" s="26">
+      <c r="C18" s="27">
+        <v>0</v>
+      </c>
+      <c r="D18" s="25">
         <f t="shared" si="0"/>
         <v>2.0833333333333333E-3</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="12" t="str">
         <f>TEXT(SUM(B2:B18), "[h]:mm:ss")</f>
         <v>30:40:00</v>
       </c>
-      <c r="C19" s="29" t="str">
+      <c r="C19" s="28" t="str">
         <f>TEXT(SUM(C2:C18), "[h]:mm:ss")</f>
         <v>2:40:00</v>
       </c>
-      <c r="D19" s="27" t="str">
+      <c r="D19" s="26" t="str">
         <f>TEXT(SUM(D2:D18), "[h]:mm:ss")</f>
         <v>28:00:00</v>
       </c>
@@ -3827,12 +4552,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27327E0E-F794-4634-A0D0-5722C24B4893}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3846,24 +4571,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" s="63" t="s">
-        <v>193</v>
+        <v>161</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B2" s="10">
         <v>4.2361111111111106E-2</v>
@@ -3871,14 +4596,14 @@
       <c r="C2" s="10">
         <v>0</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="30">
         <f>B2-C2</f>
         <v>4.2361111111111106E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B3" s="11">
         <v>3.888888888888889E-2</v>
@@ -3886,14 +4611,14 @@
       <c r="C3" s="11">
         <v>0</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="30">
         <f t="shared" ref="D3:D9" si="0">B3-C3</f>
         <v>3.888888888888889E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B4" s="11">
         <v>5.8333333333333327E-2</v>
@@ -3901,14 +4626,14 @@
       <c r="C4" s="11">
         <v>0</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="30">
         <f t="shared" si="0"/>
         <v>5.8333333333333327E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B5" s="11">
         <v>5.5555555555555552E-2</v>
@@ -3916,14 +4641,14 @@
       <c r="C5" s="11">
         <v>0</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="30">
         <f t="shared" si="0"/>
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B6" s="11">
         <v>0.12152777777777778</v>
@@ -3931,14 +4656,14 @@
       <c r="C6" s="11">
         <v>0</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="30">
         <f t="shared" si="0"/>
         <v>0.12152777777777778</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B7" s="11">
         <v>2.361111111111111E-2</v>
@@ -3946,14 +4671,14 @@
       <c r="C7" s="11">
         <v>0</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="30">
         <f t="shared" si="0"/>
         <v>2.361111111111111E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B8" s="11">
         <v>6.9444444444444447E-4</v>
@@ -3961,14 +4686,14 @@
       <c r="C8" s="11">
         <v>0</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="30">
         <f t="shared" si="0"/>
         <v>6.9444444444444447E-4</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B9" s="11">
         <v>4.9305555555555554E-2</v>
@@ -3976,14 +4701,14 @@
       <c r="C9" s="11">
         <v>0</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="31">
         <f t="shared" si="0"/>
         <v>4.9305555555555554E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="12" t="str">
         <f>TEXT(SUM(B2:B9), "[h]:mm:ss")</f>
@@ -3993,7 +4718,7 @@
         <f>TEXT(SUM(C2:C9), "[h]:mm:ss")</f>
         <v>0:00:00</v>
       </c>
-      <c r="D10" s="30" t="str">
+      <c r="D10" s="29" t="str">
         <f>TEXT(SUM(D2:D9), "[h]:mm:ss")</f>
         <v>9:22:00</v>
       </c>
@@ -4006,7 +4731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{551766D7-4392-4A05-B6E9-981BD17FC6C2}">
   <dimension ref="A1:E49"/>
   <sheetViews>
@@ -4025,24 +4750,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" s="63" t="s">
-        <v>193</v>
+        <v>161</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
-        <v>18</v>
+      <c r="A2" s="56" t="s">
+        <v>17</v>
       </c>
       <c r="B2" s="10">
         <v>4.8611111111111112E-3</v>
@@ -4050,14 +4775,14 @@
       <c r="C2" s="10">
         <v>4.8611111111111112E-3</v>
       </c>
-      <c r="D2" s="33">
+      <c r="D2" s="32">
         <f>B2-C2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
-        <v>194</v>
+      <c r="A3" s="62" t="s">
+        <v>189</v>
       </c>
       <c r="B3" s="11">
         <v>2.0833333333333333E-3</v>
@@ -4065,14 +4790,14 @@
       <c r="C3" s="11">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="33">
         <f t="shared" ref="D3:D45" si="0">B3-C3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
-        <v>30</v>
+      <c r="A4" s="58" t="s">
+        <v>29</v>
       </c>
       <c r="B4" s="11">
         <v>4.5833333333333337E-2</v>
@@ -4080,14 +4805,14 @@
       <c r="C4" s="11">
         <v>0</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="33">
         <f t="shared" si="0"/>
         <v>4.5833333333333337E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="11">
         <v>2.7777777777777779E-3</v>
@@ -4095,14 +4820,14 @@
       <c r="C5" s="11">
         <v>0</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="33">
         <f t="shared" si="0"/>
         <v>2.7777777777777779E-3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="11">
         <v>1.8055555555555557E-2</v>
@@ -4110,14 +4835,14 @@
       <c r="C6" s="11">
         <v>0</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="33">
         <f t="shared" si="0"/>
         <v>1.8055555555555557E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="11">
         <v>2.4999999999999998E-2</v>
@@ -4125,14 +4850,14 @@
       <c r="C7" s="11">
         <v>0</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="33">
         <f t="shared" si="0"/>
         <v>2.4999999999999998E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="11">
         <v>1.6666666666666666E-2</v>
@@ -4140,14 +4865,14 @@
       <c r="C8" s="11">
         <v>0</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="33">
         <f t="shared" si="0"/>
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="11">
         <v>1.5277777777777777E-2</v>
@@ -4155,14 +4880,14 @@
       <c r="C9" s="11">
         <v>0</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="33">
         <f t="shared" si="0"/>
         <v>1.5277777777777777E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="11">
         <v>1.7361111111111112E-2</v>
@@ -4170,14 +4895,14 @@
       <c r="C10" s="11">
         <v>0</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="33">
         <f t="shared" si="0"/>
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="11">
         <v>2.5694444444444447E-2</v>
@@ -4185,14 +4910,14 @@
       <c r="C11" s="11">
         <v>0</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="33">
         <f t="shared" si="0"/>
         <v>2.5694444444444447E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="11">
         <v>6.2499999999999995E-3</v>
@@ -4200,14 +4925,14 @@
       <c r="C12" s="11">
         <v>0</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="33">
         <f t="shared" si="0"/>
         <v>6.2499999999999995E-3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="11">
         <v>9.0277777777777787E-3</v>
@@ -4215,14 +4940,14 @@
       <c r="C13" s="11">
         <v>0</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="33">
         <f t="shared" si="0"/>
         <v>9.0277777777777787E-3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="11">
         <v>1.9444444444444445E-2</v>
@@ -4230,14 +4955,14 @@
       <c r="C14" s="11">
         <v>0</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="33">
         <f t="shared" si="0"/>
         <v>1.9444444444444445E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="11">
         <v>1.3888888888888889E-3</v>
@@ -4245,14 +4970,14 @@
       <c r="C15" s="11">
         <v>0</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="33">
         <f t="shared" si="0"/>
         <v>1.3888888888888889E-3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="11">
         <v>8.2638888888888887E-2</v>
@@ -4260,14 +4985,14 @@
       <c r="C16" s="11">
         <v>0</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="33">
         <f t="shared" si="0"/>
         <v>8.2638888888888887E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="11">
         <v>2.0833333333333333E-3</v>
@@ -4275,14 +5000,14 @@
       <c r="C17" s="11">
         <v>0</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="33">
         <f t="shared" si="0"/>
         <v>2.0833333333333333E-3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="11">
         <v>2.4305555555555556E-2</v>
@@ -4290,14 +5015,14 @@
       <c r="C18" s="11">
         <v>0</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="33">
         <f t="shared" si="0"/>
         <v>2.4305555555555556E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="11">
         <v>1.3888888888888889E-3</v>
@@ -4305,14 +5030,14 @@
       <c r="C19" s="11">
         <v>0</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="33">
         <f t="shared" si="0"/>
         <v>1.3888888888888889E-3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" s="11">
         <v>0.10555555555555556</v>
@@ -4320,14 +5045,14 @@
       <c r="C20" s="11">
         <v>0</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="33">
         <f t="shared" si="0"/>
         <v>0.10555555555555556</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" s="11">
         <v>1.3888888888888889E-3</v>
@@ -4335,14 +5060,14 @@
       <c r="C21" s="11">
         <v>0</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="33">
         <f t="shared" si="0"/>
         <v>1.3888888888888889E-3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="11">
         <v>2.7083333333333334E-2</v>
@@ -4350,14 +5075,14 @@
       <c r="C22" s="11">
         <v>0</v>
       </c>
-      <c r="D22" s="34">
+      <c r="D22" s="33">
         <f t="shared" si="0"/>
         <v>2.7083333333333334E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="11">
         <v>1.3888888888888889E-3</v>
@@ -4365,14 +5090,14 @@
       <c r="C23" s="11">
         <v>0</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="33">
         <f t="shared" si="0"/>
         <v>1.3888888888888889E-3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="11">
         <v>4.1666666666666664E-2</v>
@@ -4380,14 +5105,14 @@
       <c r="C24" s="11">
         <v>0</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="33">
         <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="11">
         <v>1.3888888888888889E-3</v>
@@ -4395,14 +5120,14 @@
       <c r="C25" s="11">
         <v>0</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25" s="33">
         <f t="shared" si="0"/>
         <v>1.3888888888888889E-3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" s="11">
         <v>4.027777777777778E-2</v>
@@ -4410,14 +5135,14 @@
       <c r="C26" s="11">
         <v>0</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D26" s="33">
         <f t="shared" si="0"/>
         <v>4.027777777777778E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" s="11">
         <v>6.9444444444444447E-4</v>
@@ -4425,14 +5150,14 @@
       <c r="C27" s="11">
         <v>0</v>
       </c>
-      <c r="D27" s="34">
+      <c r="D27" s="33">
         <f t="shared" si="0"/>
         <v>6.9444444444444447E-4</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" s="11">
         <v>1.1111111111111112E-2</v>
@@ -4440,14 +5165,14 @@
       <c r="C28" s="11">
         <v>0</v>
       </c>
-      <c r="D28" s="34">
+      <c r="D28" s="33">
         <f t="shared" si="0"/>
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" s="11">
         <v>2.0833333333333333E-3</v>
@@ -4455,14 +5180,14 @@
       <c r="C29" s="11">
         <v>0</v>
       </c>
-      <c r="D29" s="34">
+      <c r="D29" s="33">
         <f t="shared" si="0"/>
         <v>2.0833333333333333E-3</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" s="11">
         <v>4.0972222222222222E-2</v>
@@ -4470,14 +5195,14 @@
       <c r="C30" s="11">
         <v>0</v>
       </c>
-      <c r="D30" s="34">
+      <c r="D30" s="33">
         <f t="shared" si="0"/>
         <v>4.0972222222222222E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31" s="11">
         <v>3.9583333333333331E-2</v>
@@ -4485,14 +5210,14 @@
       <c r="C31" s="11">
         <v>0</v>
       </c>
-      <c r="D31" s="34">
+      <c r="D31" s="33">
         <f t="shared" si="0"/>
         <v>3.9583333333333331E-2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B32" s="11">
         <v>2.7777777777777779E-3</v>
@@ -4500,14 +5225,14 @@
       <c r="C32" s="11">
         <v>0</v>
       </c>
-      <c r="D32" s="34">
+      <c r="D32" s="33">
         <f t="shared" si="0"/>
         <v>2.7777777777777779E-3</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B33" s="11">
         <v>3.1944444444444449E-2</v>
@@ -4515,14 +5240,14 @@
       <c r="C33" s="11">
         <v>0</v>
       </c>
-      <c r="D33" s="34">
+      <c r="D33" s="33">
         <f t="shared" si="0"/>
         <v>3.1944444444444449E-2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34" s="11">
         <v>1.7361111111111112E-2</v>
@@ -4530,14 +5255,14 @@
       <c r="C34" s="11">
         <v>0</v>
       </c>
-      <c r="D34" s="34">
+      <c r="D34" s="33">
         <f t="shared" si="0"/>
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B35" s="11">
         <v>1.1111111111111112E-2</v>
@@ -4545,14 +5270,14 @@
       <c r="C35" s="11">
         <v>0</v>
       </c>
-      <c r="D35" s="34">
+      <c r="D35" s="33">
         <f t="shared" si="0"/>
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B36" s="11">
         <v>1.5277777777777777E-2</v>
@@ -4560,14 +5285,14 @@
       <c r="C36" s="11">
         <v>0</v>
       </c>
-      <c r="D36" s="34">
+      <c r="D36" s="33">
         <f t="shared" si="0"/>
         <v>1.5277777777777777E-2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B37" s="11">
         <v>2.0833333333333333E-3</v>
@@ -4575,14 +5300,14 @@
       <c r="C37" s="11">
         <v>0</v>
       </c>
-      <c r="D37" s="34">
+      <c r="D37" s="33">
         <f t="shared" si="0"/>
         <v>2.0833333333333333E-3</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B38" s="11">
         <v>1.1111111111111112E-2</v>
@@ -4590,14 +5315,14 @@
       <c r="C38" s="11">
         <v>0</v>
       </c>
-      <c r="D38" s="34">
+      <c r="D38" s="33">
         <f t="shared" si="0"/>
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B39" s="11">
         <v>2.9861111111111113E-2</v>
@@ -4605,14 +5330,14 @@
       <c r="C39" s="11">
         <v>0</v>
       </c>
-      <c r="D39" s="34">
+      <c r="D39" s="33">
         <f t="shared" si="0"/>
         <v>2.9861111111111113E-2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B40" s="11">
         <v>1.1111111111111112E-2</v>
@@ -4620,14 +5345,14 @@
       <c r="C40" s="11">
         <v>0</v>
       </c>
-      <c r="D40" s="34">
+      <c r="D40" s="33">
         <f t="shared" si="0"/>
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B41" s="11">
         <v>1.8749999999999999E-2</v>
@@ -4635,14 +5360,14 @@
       <c r="C41" s="11">
         <v>0</v>
       </c>
-      <c r="D41" s="34">
+      <c r="D41" s="33">
         <f t="shared" si="0"/>
         <v>1.8749999999999999E-2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B42" s="11">
         <v>5.4166666666666669E-2</v>
@@ -4650,14 +5375,14 @@
       <c r="C42" s="11">
         <v>0</v>
       </c>
-      <c r="D42" s="34">
+      <c r="D42" s="33">
         <f t="shared" si="0"/>
         <v>5.4166666666666669E-2</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B43" s="11">
         <v>6.9444444444444447E-4</v>
@@ -4665,14 +5390,14 @@
       <c r="C43" s="11">
         <v>0</v>
       </c>
-      <c r="D43" s="34">
+      <c r="D43" s="33">
         <f t="shared" si="0"/>
         <v>6.9444444444444447E-4</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B44" s="11">
         <v>1.2499999999999999E-2</v>
@@ -4680,14 +5405,14 @@
       <c r="C44" s="11">
         <v>0</v>
       </c>
-      <c r="D44" s="34">
+      <c r="D44" s="33">
         <f t="shared" si="0"/>
         <v>1.2499999999999999E-2</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B45" s="11">
         <v>6.9444444444444447E-4</v>
@@ -4695,34 +5420,34 @@
       <c r="C45" s="11">
         <v>0</v>
       </c>
-      <c r="D45" s="34">
+      <c r="D45" s="33">
         <f t="shared" si="0"/>
         <v>6.9444444444444447E-4</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B46" s="78"/>
-      <c r="C46" s="78"/>
-      <c r="D46" s="78"/>
+        <v>73</v>
+      </c>
+      <c r="B46" s="76"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="76"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="72"/>
-      <c r="B47" s="78"/>
-      <c r="C47" s="78"/>
-      <c r="D47" s="78"/>
+      <c r="A47" s="70"/>
+      <c r="B47" s="76"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
     </row>
     <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
-      <c r="B48" s="78"/>
-      <c r="C48" s="78"/>
-      <c r="D48" s="78"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="76"/>
     </row>
     <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" s="12" t="str">
         <f>TEXT(SUM(B2:B45), "[h]:mm:ss")</f>
@@ -4732,7 +5457,7 @@
         <f>TEXT(SUM(C2:C45), "[h]:mm:ss")</f>
         <v>0:10:00</v>
       </c>
-      <c r="D49" s="27" t="str">
+      <c r="D49" s="26" t="str">
         <f>TEXT(SUM(D2:D45), "[h]:mm:ss")</f>
         <v>20:18:00</v>
       </c>
@@ -4745,7 +5470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091DB7D3-FC06-4FFF-BD79-5C27577A6DDF}">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4764,24 +5489,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" s="63" t="s">
-        <v>193</v>
+        <v>161</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="10">
         <v>1.5277777777777777E-2</v>
@@ -4789,14 +5514,14 @@
       <c r="C2" s="10">
         <v>0</v>
       </c>
-      <c r="D2" s="33">
+      <c r="D2" s="32">
         <f>B2-C2</f>
         <v>1.5277777777777777E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B3" s="11">
         <v>0.15625</v>
@@ -4804,14 +5529,14 @@
       <c r="C3" s="11">
         <v>0</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="33">
         <f t="shared" ref="D3:D9" si="0">B3-C3</f>
         <v>0.15625</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="11">
         <v>0.48541666666666666</v>
@@ -4819,14 +5544,14 @@
       <c r="C4" s="11">
         <v>0</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="33">
         <f t="shared" si="0"/>
         <v>0.48541666666666666</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" s="11">
         <v>0.14305555555555557</v>
@@ -4834,14 +5559,14 @@
       <c r="C5" s="11">
         <v>0</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="33">
         <f t="shared" si="0"/>
         <v>0.14305555555555557</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B6" s="11">
         <v>0.17916666666666667</v>
@@ -4849,14 +5574,14 @@
       <c r="C6" s="11">
         <v>0</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="33">
         <f t="shared" si="0"/>
         <v>0.17916666666666667</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B7" s="11">
         <v>0.12291666666666667</v>
@@ -4864,14 +5589,14 @@
       <c r="C7" s="11">
         <v>0</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="33">
         <f t="shared" si="0"/>
         <v>0.12291666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B8" s="11">
         <v>6.9444444444444447E-4</v>
@@ -4879,14 +5604,14 @@
       <c r="C8" s="11">
         <v>0</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="33">
         <f t="shared" si="0"/>
         <v>6.9444444444444447E-4</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B9" s="11">
         <v>2.4305555555555556E-2</v>
@@ -4894,14 +5619,14 @@
       <c r="C9" s="11">
         <v>0</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="34">
         <f t="shared" si="0"/>
         <v>2.4305555555555556E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="12" t="str">
         <f>TEXT(SUM(B2:B9), "[h]:mm:ss")</f>
@@ -4911,7 +5636,7 @@
         <f>TEXT(SUM(C2:C9), "[h]:mm:ss")</f>
         <v>0:00:00</v>
       </c>
-      <c r="D10" s="27" t="str">
+      <c r="D10" s="26" t="str">
         <f>TEXT(SUM(D2:D9), "[h]:mm:ss")</f>
         <v>27:03:00</v>
       </c>
@@ -4924,7 +5649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5BEE3BA-D396-4809-9814-4FEF6E74BE17}">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -4942,162 +5667,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
-        <v>195</v>
+      <c r="A1" s="63" t="s">
+        <v>190</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" s="63" t="s">
-        <v>193</v>
+        <v>161</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
-        <v>196</v>
-      </c>
-      <c r="B2" s="74" t="str">
+      <c r="A2" s="71" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="72" t="str">
         <f>TEXT(SUM(B3:B12), "[h]:mm:ss")</f>
         <v>0:45:00</v>
       </c>
-      <c r="C2" s="74" t="str">
+      <c r="C2" s="72" t="str">
         <f>TEXT(SUM(C3:C12), "[h]:mm:ss")</f>
         <v>0:00:00</v>
       </c>
-      <c r="D2" s="76">
+      <c r="D2" s="74">
         <f>B2-C2</f>
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="75" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="65">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="C3" s="65"/>
+      <c r="D3" s="66"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="65">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="64" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" s="65">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="C5" s="65"/>
+      <c r="D5" s="66"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="65">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="C6" s="65"/>
+      <c r="D6" s="66"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="64" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="65">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="C7" s="65"/>
+      <c r="D7" s="66"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="B3" s="67">
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="68"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="B8" s="65">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="64" t="s">
         <v>198</v>
       </c>
-      <c r="B4" s="67">
-        <v>6.9444444444444447E-4</v>
-      </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="68"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="66" t="s">
+      <c r="B9" s="65">
+        <v>0</v>
+      </c>
+      <c r="C9" s="65"/>
+      <c r="D9" s="66"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="64" t="s">
         <v>199</v>
       </c>
-      <c r="B5" s="67">
+      <c r="B10" s="65">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="C10" s="65"/>
+      <c r="D10" s="66"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="64" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" s="65">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="C11" s="65"/>
+      <c r="D11" s="66"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" s="65">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="68"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
-        <v>200</v>
-      </c>
-      <c r="B6" s="67">
-        <v>7.6388888888888886E-3</v>
-      </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="68"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="66" t="s">
-        <v>201</v>
-      </c>
-      <c r="B7" s="67">
-        <v>5.5555555555555558E-3</v>
-      </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="68"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="66" t="s">
+      <c r="C12" s="65"/>
+      <c r="D12" s="66"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="71" t="s">
         <v>202</v>
       </c>
-      <c r="B8" s="67">
-        <v>4.8611111111111112E-3</v>
-      </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="68"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="66" t="s">
-        <v>203</v>
-      </c>
-      <c r="B9" s="67">
-        <v>0</v>
-      </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="68"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="66" t="s">
-        <v>204</v>
-      </c>
-      <c r="B10" s="67">
-        <v>2.0833333333333333E-3</v>
-      </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="68"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="66" t="s">
-        <v>205</v>
-      </c>
-      <c r="B11" s="67">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="68"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="66" t="s">
-        <v>206</v>
-      </c>
-      <c r="B12" s="67">
-        <v>1.3888888888888889E-3</v>
-      </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="68"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="73" t="s">
-        <v>207</v>
-      </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="76"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="74"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="66"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="68"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="66"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="69"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="71"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="69"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="12" t="str">
         <f>TEXT(SUM(B3:B12), "[h]:mm:ss")</f>
@@ -5107,7 +5832,7 @@
         <f>TEXT(SUM(C2:C13), "[h]:mm:ss")</f>
         <v>0:00:00</v>
       </c>
-      <c r="D16" s="27" t="str">
+      <c r="D16" s="26" t="str">
         <f>TEXT(SUM(D2:D13), "[h]:mm:ss")</f>
         <v>0:45:00</v>
       </c>
@@ -5120,243 +5845,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D736F250-17C4-4B20-9075-74FB8A9D5BFA}">
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="80.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" s="63" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" s="10">
-        <v>1.5277777777777777E-2</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0</v>
-      </c>
-      <c r="D2" s="33">
-        <f>B2-C2</f>
-        <v>1.5277777777777777E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="11">
-        <v>1.5277777777777777E-2</v>
-      </c>
-      <c r="C3" s="11">
-        <v>0</v>
-      </c>
-      <c r="D3" s="34">
-        <f t="shared" ref="D3:D13" si="0">B3-C3</f>
-        <v>1.5277777777777777E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="11">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="C4" s="11">
-        <v>0</v>
-      </c>
-      <c r="D4" s="34">
-        <f t="shared" si="0"/>
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" s="11">
-        <v>1.5277777777777777E-2</v>
-      </c>
-      <c r="C5" s="11">
-        <v>0</v>
-      </c>
-      <c r="D5" s="34">
-        <f t="shared" si="0"/>
-        <v>1.5277777777777777E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B6" s="11">
-        <v>1.5277777777777777E-2</v>
-      </c>
-      <c r="C6" s="11">
-        <v>0</v>
-      </c>
-      <c r="D6" s="34">
-        <f t="shared" si="0"/>
-        <v>1.5277777777777777E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" s="11">
-        <v>1.1111111111111112E-2</v>
-      </c>
-      <c r="C7" s="11">
-        <v>0</v>
-      </c>
-      <c r="D7" s="34">
-        <f t="shared" si="0"/>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B8" s="11">
-        <v>1.1111111111111112E-2</v>
-      </c>
-      <c r="C8" s="11">
-        <v>0</v>
-      </c>
-      <c r="D8" s="34">
-        <f t="shared" si="0"/>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" s="11">
-        <v>9.7222222222222224E-3</v>
-      </c>
-      <c r="C9" s="11">
-        <v>0</v>
-      </c>
-      <c r="D9" s="34">
-        <f t="shared" si="0"/>
-        <v>9.7222222222222224E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B10" s="11">
-        <v>5.4166666666666669E-2</v>
-      </c>
-      <c r="C10" s="11">
-        <v>0</v>
-      </c>
-      <c r="D10" s="34">
-        <f t="shared" si="0"/>
-        <v>5.4166666666666669E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B11" s="11">
-        <v>2.361111111111111E-2</v>
-      </c>
-      <c r="C11" s="11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="34">
-        <f t="shared" si="0"/>
-        <v>2.361111111111111E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B12" s="11">
-        <v>1.3888888888888889E-3</v>
-      </c>
-      <c r="C12" s="11">
-        <v>0</v>
-      </c>
-      <c r="D12" s="34">
-        <f t="shared" si="0"/>
-        <v>1.3888888888888889E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B13" s="11">
-        <v>5.4166666666666669E-2</v>
-      </c>
-      <c r="C13" s="11">
-        <v>0</v>
-      </c>
-      <c r="D13" s="35">
-        <f t="shared" si="0"/>
-        <v>5.4166666666666669E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="12" t="str">
-        <f>TEXT(SUM(B2:B13), "[h]:mm:ss")</f>
-        <v>5:56:00</v>
-      </c>
-      <c r="C14" s="12" t="str">
-        <f>TEXT(SUM(C2:C13), "[h]:mm:ss")</f>
-        <v>0:00:00</v>
-      </c>
-      <c r="D14" s="27" t="str">
-        <f>TEXT(SUM(D2:D13), "[h]:mm:ss")</f>
-        <v>5:56:00</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E1" location="Cursos!A1" display="Volver Cursos" xr:uid="{F243C22D-6AFD-4897-8CC3-265DCED094A6}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/CheckpointCursos_2023.xlsx
+++ b/CheckpointCursos_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CCGQ095K\Documents\Udemy\udemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8793B629-DF61-482B-A619-0CDE3FB20DB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E69C08-93E3-40E6-A227-6900D9B5C1EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cursos" sheetId="12" r:id="rId1"/>
@@ -30,6 +30,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cursos!$A$1:$E$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">JSModerno!$A$1:$E$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">MasterEnCSS!$A$1:$E$59</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="260">
   <si>
     <t>Hora</t>
   </si>
@@ -734,6 +736,99 @@
   </si>
   <si>
     <t xml:space="preserve"> Horas Terminadas</t>
+  </si>
+  <si>
+    <t>1. Introducción</t>
+  </si>
+  <si>
+    <t>2. ¿Cómo funcionará el curso?</t>
+  </si>
+  <si>
+    <t>3. ¿Cómo realizar preguntas?</t>
+  </si>
+  <si>
+    <t>4. Instalaciones necesarias (Recursos)</t>
+  </si>
+  <si>
+    <t>5. !Únete a Nuestra Comunidad de DevTalles en Discord!</t>
+  </si>
+  <si>
+    <t>6. Introducción a la sección</t>
+  </si>
+  <si>
+    <t>7. Temas puntuales de la sección</t>
+  </si>
+  <si>
+    <t>8. JavaScript y su historia</t>
+  </si>
+  <si>
+    <t>9. Uso de JavaScript (Recursos)</t>
+  </si>
+  <si>
+    <t>10. Hola Mundo</t>
+  </si>
+  <si>
+    <t>11. Introducción a variables y comentarios</t>
+  </si>
+  <si>
+    <t>12. Introducción a la consola</t>
+  </si>
+  <si>
+    <t>13. Depuración y breakpoints</t>
+  </si>
+  <si>
+    <t>14. Orden y lugar de las importaciones</t>
+  </si>
+  <si>
+    <t>15. Principal problema con la inicialización de variables con Var</t>
+  </si>
+  <si>
+    <t>16. Prompt, confirm, y alert</t>
+  </si>
+  <si>
+    <t>17. Código fuente de la sección</t>
+  </si>
+  <si>
+    <t>2. HTML - ¿Qué aprenderás?</t>
+  </si>
+  <si>
+    <t>3. ¿Qué es HTML y para que sirve?</t>
+  </si>
+  <si>
+    <t>4. ¿Qué es una etiqueta y como funciona?</t>
+  </si>
+  <si>
+    <t>5. La estructura de una página web con HTML</t>
+  </si>
+  <si>
+    <t>6. Etiquetas de texto en HTML</t>
+  </si>
+  <si>
+    <t>7. Listas y listados en tu página web html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Poner imágenes </t>
+  </si>
+  <si>
+    <t>9. Tablas HTML</t>
+  </si>
+  <si>
+    <t>10. Crear formularios en HTML</t>
+  </si>
+  <si>
+    <t>11. Ejercicio completo para practicar con HTML</t>
+  </si>
+  <si>
+    <t>12. Múltiples páginas</t>
+  </si>
+  <si>
+    <t>13. Enlaces con HTML</t>
+  </si>
+  <si>
+    <t>TO DO</t>
+  </si>
+  <si>
+    <t>Estado Kanba</t>
   </si>
 </sst>
 </file>
@@ -864,7 +959,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1186,18 +1281,38 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1208,7 +1323,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1339,17 +1454,9 @@
     <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1373,7 +1480,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1385,9 +1491,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1411,8 +1514,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Énfasis2" xfId="2" builtinId="33"/>
@@ -1705,8 +1866,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1744,10 +1905,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="60" t="str">
+      <c r="B2" s="56" t="str">
         <f>JQueryFH!A1</f>
         <v>Jquery: De cero a avanzado (Legacy)</v>
       </c>
@@ -1765,31 +1926,31 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="79" t="s">
         <v>224</v>
       </c>
-      <c r="B3" s="82" t="str">
+      <c r="B3" s="76" t="str">
         <f>JSModerno!A1</f>
         <v>JavaScript Moderno: Guía para dominar el lenguaje</v>
       </c>
       <c r="C3" s="47" t="str">
-        <f>JSModerno!B18</f>
-        <v>22:48:00</v>
-      </c>
-      <c r="D3" s="55" t="str">
-        <f>JSModerno!C18</f>
-        <v>1:44:00</v>
+        <f>JSModerno!B35</f>
+        <v>1:45:00</v>
+      </c>
+      <c r="D3" s="47" t="str">
+        <f>JSModerno!C35</f>
+        <v>0:00:00</v>
       </c>
       <c r="E3" s="42" t="str">
-        <f>JSModerno!D18</f>
-        <v>21:04:00</v>
+        <f>JSModerno!D35</f>
+        <v>1:45:00</v>
       </c>
     </row>
     <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="B4" s="59" t="str">
+      <c r="B4" s="55" t="str">
         <f>PythonTotal!A1</f>
         <v>Python TOTAL - Programador avanzado en 16 días</v>
       </c>
@@ -1797,7 +1958,7 @@
         <f>PythonTotal!B19</f>
         <v>30:40:00</v>
       </c>
-      <c r="D4" s="55" t="str">
+      <c r="D4" s="54" t="str">
         <f>PythonTotal!C19</f>
         <v>2:40:00</v>
       </c>
@@ -1807,10 +1968,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="B5" s="59" t="str">
+      <c r="B5" s="55" t="str">
         <f>ExpRegDesaWeb!A1</f>
         <v>Aprende Expresiones regulares para el desarrollo WEB</v>
       </c>
@@ -1828,10 +1989,10 @@
       </c>
     </row>
     <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="B6" s="59" t="str">
+      <c r="B6" s="55" t="str">
         <f>Bootstrap4!A1</f>
         <v>Experto en Bootstrap 4 en 7 días</v>
       </c>
@@ -1849,10 +2010,10 @@
       </c>
     </row>
     <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="B7" s="59" t="str">
+      <c r="B7" s="55" t="str">
         <f>'Html&amp;CSS_CeroAvanzado'!A1</f>
         <v xml:space="preserve">Curso de Diseño Web: HTML y CSS desde cero hasta avanzado. </v>
       </c>
@@ -1870,31 +2031,31 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="79" t="s">
         <v>224</v>
       </c>
-      <c r="B8" s="82" t="str">
+      <c r="B8" s="76" t="str">
         <f>MasterEnCSS!A1</f>
         <v>Master en CSS: Responsive, SAAS, Flexbox, Grid y Bootstrap</v>
       </c>
       <c r="C8" s="47" t="str">
-        <f>MasterEnCSS!B49</f>
-        <v>20:28:00</v>
+        <f>MasterEnCSS!B59</f>
+        <v>1:11:00</v>
       </c>
       <c r="D8" s="36" t="str">
-        <f>MasterEnCSS!C49</f>
-        <v>0:10:00</v>
+        <f>MasterEnCSS!C59</f>
+        <v>0:00:00</v>
       </c>
       <c r="E8" s="42" t="str">
-        <f>MasterEnCSS!D49</f>
-        <v>20:18:00</v>
+        <f>MasterEnCSS!D59</f>
+        <v>21:30:00</v>
       </c>
     </row>
     <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="85" t="s">
+      <c r="A9" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="B9" s="59" t="str">
+      <c r="B9" s="55" t="str">
         <f>UIConFigma!A1</f>
         <v>Aprende diseño de interfaz (UI) con Figma</v>
       </c>
@@ -1912,10 +2073,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="79" t="s">
         <v>225</v>
       </c>
-      <c r="B10" s="82" t="str">
+      <c r="B10" s="76" t="str">
         <f>GitGitHub!A1</f>
         <v xml:space="preserve">Curso Git + GitHub </v>
       </c>
@@ -1933,10 +2094,10 @@
       </c>
     </row>
     <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="79" t="s">
         <v>168</v>
       </c>
-      <c r="B11" s="59" t="str">
+      <c r="B11" s="55" t="str">
         <f>Docker!A1</f>
         <v xml:space="preserve">Docker Guía práctica de uso para desarrolladores </v>
       </c>
@@ -1954,10 +2115,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="79" t="s">
         <v>187</v>
       </c>
-      <c r="B12" s="59" t="str">
+      <c r="B12" s="55" t="str">
         <f>NodeCeroExperto!A1</f>
         <v>Node: De cero a experto</v>
       </c>
@@ -1975,28 +2136,37 @@
       </c>
     </row>
     <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="B13" s="83" t="str">
+      <c r="B13" s="77" t="str">
         <f>HtmlCssBootcamp2023!A1</f>
         <v>The HTML &amp; CSS Bootcamp 2023 Edition</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="23"/>
-      <c r="E13" s="86"/>
+      <c r="E13" s="80"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="87" t="s">
+      <c r="A14" s="81" t="s">
         <v>224</v>
       </c>
-      <c r="B14" s="88" t="str">
+      <c r="B14" s="82" t="str">
         <f>TC2023WDB!A1</f>
         <v>The Complete 2023 Web Development Bootcamp</v>
       </c>
-      <c r="C14" s="89"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="91"/>
+      <c r="C14" s="83" t="str">
+        <f>TC2023WDB!B25</f>
+        <v>1:29:00</v>
+      </c>
+      <c r="D14" s="83" t="str">
+        <f>TC2023WDB!C25</f>
+        <v>0:00:00</v>
+      </c>
+      <c r="E14" s="83" t="str">
+        <f>TC2023WDB!D25</f>
+        <v>1:29:00</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
@@ -2004,16 +2174,16 @@
         <v>164</v>
       </c>
       <c r="C15" s="51" t="str">
-        <f>TEXT(SUM(JQueryFH!B2:'JQueryFH'!B9) + SUM(JSModerno!B12:'JSModerno'!B17) + SUM(PythonTotal!B2:'PythonTotal'!B18) + SUM(ExpRegDesaWeb!B2:'ExpRegDesaWeb'!B13) + SUM(Bootstrap4!B2:'Bootstrap4'!B12) + SUM('Html&amp;CSS_CeroAvanzado'!B2:'Html&amp;CSS_CeroAvanzado'!B9) + SUM(MasterEnCSS!B2:'MasterEnCSS'!B45) + SUM(UIConFigma!B2:'UIConFigma'!B12) + SUM(GitGitHub!B2:'GitGitHub'!B15) + SUM(Docker!B2:'Docker'!B12) + SUM(NodeCeroExperto!B2:'NodeCeroExperto'!B20),"[h]:mm:ss")</f>
-        <v>187:09:00</v>
+        <f>TEXT(SUM(JQueryFH!B2:'JQueryFH'!B9) + SUM(JSModerno!B29:'JSModerno'!B34) + SUM(PythonTotal!B2:'PythonTotal'!B18) + SUM(ExpRegDesaWeb!B2:'ExpRegDesaWeb'!B13) + SUM(Bootstrap4!B2:'Bootstrap4'!B12) + SUM('Html&amp;CSS_CeroAvanzado'!B2:'Html&amp;CSS_CeroAvanzado'!B9) + SUM(MasterEnCSS!B2:'MasterEnCSS'!B57) + SUM(UIConFigma!B2:'UIConFigma'!B12) + SUM(GitGitHub!B2:'GitGitHub'!B15) + SUM(Docker!B2:'Docker'!B12) + SUM(NodeCeroExperto!B2:'NodeCeroExperto'!B20),"[h]:mm:ss")</f>
+        <v>187:00:00</v>
       </c>
       <c r="D15" s="49" t="str">
-        <f>TEXT(SUM(JQueryFH!C2:'JQueryFH'!C9) + SUM(JSModerno!C12:'JSModerno'!C17) + SUM(PythonTotal!C2:'PythonTotal'!C18) + SUM(ExpRegDesaWeb!C2:'ExpRegDesaWeb'!C13) + SUM(Bootstrap4!C2:'Bootstrap4'!C12) + SUM('Html&amp;CSS_CeroAvanzado'!C2:'Html&amp;CSS_CeroAvanzado'!C9) + SUM(MasterEnCSS!C2:'MasterEnCSS'!C45) + SUM(UIConFigma!C2:'UIConFigma'!C12) + SUM(GitGitHub!C2:'GitGitHub'!C15) + SUM(Docker!C2:'Docker'!C12) + SUM(NodeCeroExperto!C2:'NodeCeroExperto'!C20),"[h]:mm:ss")</f>
-        <v>10:02:00</v>
+        <f>TEXT(SUM(JQueryFH!C2:'JQueryFH'!C9) + SUM(JSModerno!C29:'JSModerno'!C34) + SUM(PythonTotal!C2:'PythonTotal'!C18) + SUM(ExpRegDesaWeb!C2:'ExpRegDesaWeb'!C13) + SUM(Bootstrap4!C2:'Bootstrap4'!C12) + SUM('Html&amp;CSS_CeroAvanzado'!C2:'Html&amp;CSS_CeroAvanzado'!C9) + SUM(MasterEnCSS!C2:'MasterEnCSS'!C57) + SUM(UIConFigma!C2:'UIConFigma'!C12) + SUM(GitGitHub!C2:'GitGitHub'!C15) + SUM(Docker!C2:'Docker'!C12) + SUM(NodeCeroExperto!C2:'NodeCeroExperto'!C20),"[h]:mm:ss")</f>
+        <v>9:52:00</v>
       </c>
       <c r="E15" s="50" t="str">
-        <f>TEXT(SUM(JQueryFH!D2:'JQueryFH'!D9) + SUM(JSModerno!D12:'JSModerno'!D17) + SUM(PythonTotal!D2:'PythonTotal'!D18) + SUM(ExpRegDesaWeb!D2:'ExpRegDesaWeb'!D13) + SUM(Bootstrap4!D2:'Bootstrap4'!D12) + SUM('Html&amp;CSS_CeroAvanzado'!D2:'Html&amp;CSS_CeroAvanzado'!D9) + SUM(MasterEnCSS!D2:'MasterEnCSS'!D45) + SUM(UIConFigma!D2:'UIConFigma'!D12) + SUM(GitGitHub!D2:'GitGitHub'!D15) + SUM(Docker!D2:'Docker'!D12) + SUM(NodeCeroExperto!C2:'NodeCeroExperto'!C20),"[h]:mm:ss")</f>
-        <v>145:51:00</v>
+        <f>TEXT(SUM(JQueryFH!D2:'JQueryFH'!D9) + SUM(JSModerno!D29:'JSModerno'!D34) + SUM(PythonTotal!D2:'PythonTotal'!D18) + SUM(ExpRegDesaWeb!D2:'ExpRegDesaWeb'!D13) + SUM(Bootstrap4!D2:'Bootstrap4'!D12) + SUM('Html&amp;CSS_CeroAvanzado'!D2:'Html&amp;CSS_CeroAvanzado'!D9) + SUM(MasterEnCSS!D2:'MasterEnCSS'!D57) + SUM(UIConFigma!D2:'UIConFigma'!D12) + SUM(GitGitHub!D2:'GitGitHub'!D15) + SUM(Docker!D2:'Docker'!D12) + SUM(NodeCeroExperto!C2:'NodeCeroExperto'!C20),"[h]:mm:ss")</f>
+        <v>147:03:00</v>
       </c>
     </row>
   </sheetData>
@@ -2074,7 +2244,7 @@
       <c r="D1" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="57" t="s">
         <v>188</v>
       </c>
     </row>
@@ -2314,7 +2484,7 @@
       <c r="D1" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="57" t="s">
         <v>188</v>
       </c>
     </row>
@@ -2538,7 +2708,7 @@
       <c r="D1" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="57" t="s">
         <v>188</v>
       </c>
     </row>
@@ -2761,7 +2931,7 @@
       <c r="D1" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="57" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3030,7 +3200,7 @@
       <c r="D1" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="57" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3228,7 +3398,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B80DA1-296E-434B-BF4F-53A72E31519B}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3252,23 +3424,23 @@
       <c r="D1" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="57" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="B2" s="78" t="str">
+      <c r="B2" s="72" t="str">
         <f>TEXT(SUM(B3:B11), "[h]:mm:ss")</f>
         <v>0:38:00</v>
       </c>
-      <c r="C2" s="78" t="str">
+      <c r="C2" s="72" t="str">
         <f>TEXT(SUM(C3:C11), "[h]:mm:ss")</f>
         <v>0:00:00</v>
       </c>
-      <c r="D2" s="79">
+      <c r="D2" s="73">
         <f>B2-C2</f>
         <v>2.6388888888888889E-2</v>
       </c>
@@ -3409,18 +3581,18 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="71" t="s">
         <v>214</v>
       </c>
-      <c r="B12" s="78" t="str">
+      <c r="B12" s="72" t="str">
         <f>TEXT(SUM(B13:B20), "[h]:mm:ss")</f>
         <v>0:51:00</v>
       </c>
-      <c r="C12" s="78" t="str">
+      <c r="C12" s="72" t="str">
         <f>TEXT(SUM(C13:C20), "[h]:mm:ss")</f>
         <v>0:00:00</v>
       </c>
-      <c r="D12" s="79">
+      <c r="D12" s="73">
         <f>B12-C12</f>
         <v>3.5416666666666666E-2</v>
       </c>
@@ -3546,12 +3718,12 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="77" t="s">
+      <c r="A21" s="71" t="s">
         <v>216</v>
       </c>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="81"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="75"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
@@ -3575,14 +3747,17 @@
       <c r="A25" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="12"/>
+      <c r="B25" s="12" t="str">
+        <f>TEXT(SUM(B3:B11)+SUM(B13:B20), "[h]:mm:ss")</f>
+        <v>1:29:00</v>
+      </c>
       <c r="C25" s="12" t="str">
-        <f>TEXT(SUM(C2:C24), "[h]:mm:ss")</f>
+        <f>TEXT(SUM(C3:C11)+SUM(C13:C20), "[h]:mm:ss")</f>
         <v>0:00:00</v>
       </c>
-      <c r="D25" s="29" t="str">
-        <f>TEXT(SUM(D2:D24), "[h]:mm:ss")</f>
-        <v>2:58:00</v>
+      <c r="D25" s="12" t="str">
+        <f>TEXT(SUM(D3:D11)+SUM(D13:D20), "[h]:mm:ss")</f>
+        <v>1:29:00</v>
       </c>
     </row>
   </sheetData>
@@ -3596,10 +3771,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DEDBD2F-DA68-4A01-A25C-CAD575883754}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3608,286 +3783,622 @@
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="F1" s="57" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="54">
+      <c r="B2" s="101" t="str">
+        <f>TEXT(SUM(B3:B7),"[h]:mm:ss")</f>
+        <v>0:17:00</v>
+      </c>
+      <c r="C2" s="101" t="str">
+        <f>TEXT(SUM(C3:C7),"[h]:mm:ss")</f>
+        <v>0:00:00</v>
+      </c>
+      <c r="D2" s="102">
+        <f>B2-C2</f>
         <v>1.1805555555555555E-2</v>
       </c>
-      <c r="C2" s="54">
-        <v>1.1805555555555555E-2</v>
-      </c>
-      <c r="D2" s="54">
-        <f>B2-C2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="E2" s="74" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="11">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="C3" s="27">
+        <v>0</v>
+      </c>
+      <c r="D3" s="11">
+        <f t="shared" ref="D3:D7" si="0">B3-C3</f>
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" s="11">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="C4" s="27">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="11">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="C5" s="27">
+        <v>0</v>
+      </c>
+      <c r="D5" s="11">
+        <f t="shared" si="0"/>
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6" s="11">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="C6" s="27">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11">
+        <f t="shared" si="0"/>
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B7" s="84">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="C7" s="85">
+        <v>0</v>
+      </c>
+      <c r="D7" s="84">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="57">
-        <v>6.0416666666666667E-2</v>
-      </c>
-      <c r="C3" s="57">
-        <v>6.0416666666666667E-2</v>
-      </c>
-      <c r="D3" s="57">
-        <f t="shared" ref="D3:D17" si="0">B3-C3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B8" s="74" t="str">
+        <f>TEXT(SUM(B9:B20),"[h]:mm:ss")</f>
+        <v>1:28:00</v>
+      </c>
+      <c r="C8" s="74" t="str">
+        <f>TEXT(SUM(C9:C20),"[h]:mm:ss")</f>
+        <v>0:00:00</v>
+      </c>
+      <c r="D8" s="74">
+        <f t="shared" ref="D8:D34" si="1">B8-C8</f>
+        <v>6.1111111111111116E-2</v>
+      </c>
+      <c r="E8" s="74" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="87" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" s="86">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="C9" s="86">
+        <v>0</v>
+      </c>
+      <c r="D9" s="86">
+        <f>B9-C9</f>
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="88" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10" s="86">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="C10" s="86">
+        <v>0</v>
+      </c>
+      <c r="D10" s="86">
+        <f t="shared" ref="D10:D20" si="2">B10-C10</f>
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="88" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" s="86">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="C11" s="86">
+        <v>0</v>
+      </c>
+      <c r="D11" s="86">
+        <f t="shared" si="2"/>
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="88" t="s">
+        <v>237</v>
+      </c>
+      <c r="B12" s="86">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="C12" s="86">
+        <v>0</v>
+      </c>
+      <c r="D12" s="86">
+        <f t="shared" si="2"/>
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="88" t="s">
+        <v>238</v>
+      </c>
+      <c r="B13" s="86">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="C13" s="86">
+        <v>0</v>
+      </c>
+      <c r="D13" s="86">
+        <f t="shared" si="2"/>
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="88" t="s">
+        <v>239</v>
+      </c>
+      <c r="B14" s="86">
+        <v>9.0277777777777787E-3</v>
+      </c>
+      <c r="C14" s="86">
+        <v>0</v>
+      </c>
+      <c r="D14" s="86">
+        <f t="shared" si="2"/>
+        <v>9.0277777777777787E-3</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="88" t="s">
+        <v>240</v>
+      </c>
+      <c r="B15" s="86">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="C15" s="86">
+        <v>0</v>
+      </c>
+      <c r="D15" s="86">
+        <f t="shared" si="2"/>
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="88" t="s">
+        <v>241</v>
+      </c>
+      <c r="B16" s="86">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="C16" s="86">
+        <v>0</v>
+      </c>
+      <c r="D16" s="86">
+        <f t="shared" si="2"/>
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="88" t="s">
+        <v>242</v>
+      </c>
+      <c r="B17" s="86">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="C17" s="86">
+        <v>0</v>
+      </c>
+      <c r="D17" s="86">
+        <f t="shared" si="2"/>
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="88" t="s">
+        <v>243</v>
+      </c>
+      <c r="B18" s="86">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="C18" s="86">
+        <v>0</v>
+      </c>
+      <c r="D18" s="86">
+        <f t="shared" si="2"/>
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="88" t="s">
+        <v>244</v>
+      </c>
+      <c r="B19" s="86">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="C19" s="86">
+        <v>0</v>
+      </c>
+      <c r="D19" s="86">
+        <f t="shared" si="2"/>
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="88" t="s">
+        <v>245</v>
+      </c>
+      <c r="B20" s="86">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="C20" s="86">
+        <v>0</v>
+      </c>
+      <c r="D20" s="86">
+        <f t="shared" si="2"/>
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B21" s="74">
         <v>8.4722222222222213E-2</v>
       </c>
-      <c r="C4" s="11">
-        <v>0</v>
-      </c>
-      <c r="D4" s="33">
-        <f t="shared" si="0"/>
+      <c r="C21" s="74">
+        <v>0</v>
+      </c>
+      <c r="D21" s="90">
+        <f t="shared" si="1"/>
         <v>8.4722222222222213E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="E21" s="74"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B22" s="11">
         <v>6.7361111111111108E-2</v>
       </c>
-      <c r="C5" s="11">
-        <v>0</v>
-      </c>
-      <c r="D5" s="33">
-        <f t="shared" si="0"/>
+      <c r="C22" s="11">
+        <v>0</v>
+      </c>
+      <c r="D22" s="33">
+        <f t="shared" si="1"/>
         <v>6.7361111111111108E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B23" s="11">
         <v>8.4722222222222213E-2</v>
       </c>
-      <c r="C6" s="11">
-        <v>0</v>
-      </c>
-      <c r="D6" s="33">
-        <f t="shared" si="0"/>
+      <c r="C23" s="11">
+        <v>0</v>
+      </c>
+      <c r="D23" s="33">
+        <f t="shared" si="1"/>
         <v>8.4722222222222213E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B24" s="11">
         <v>3.9583333333333331E-2</v>
       </c>
-      <c r="C7" s="11">
-        <v>0</v>
-      </c>
-      <c r="D7" s="33">
-        <f t="shared" si="0"/>
+      <c r="C24" s="11">
+        <v>0</v>
+      </c>
+      <c r="D24" s="33">
+        <f t="shared" si="1"/>
         <v>3.9583333333333331E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B25" s="11">
         <v>5.9027777777777783E-2</v>
       </c>
-      <c r="C8" s="11">
-        <v>0</v>
-      </c>
-      <c r="D8" s="33">
-        <f t="shared" si="0"/>
+      <c r="C25" s="11">
+        <v>0</v>
+      </c>
+      <c r="D25" s="33">
+        <f t="shared" si="1"/>
         <v>5.9027777777777783E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B26" s="11">
         <v>8.4722222222222213E-2</v>
       </c>
-      <c r="C9" s="11">
-        <v>0</v>
-      </c>
-      <c r="D9" s="33">
-        <f t="shared" si="0"/>
+      <c r="C26" s="11">
+        <v>0</v>
+      </c>
+      <c r="D26" s="33">
+        <f t="shared" si="1"/>
         <v>8.4722222222222213E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B27" s="11">
         <v>2.6388888888888889E-2</v>
       </c>
-      <c r="C10" s="11">
-        <v>0</v>
-      </c>
-      <c r="D10" s="33">
-        <f t="shared" si="0"/>
+      <c r="C27" s="11">
+        <v>0</v>
+      </c>
+      <c r="D27" s="33">
+        <f t="shared" si="1"/>
         <v>2.6388888888888889E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B28" s="11">
         <v>0.10347222222222223</v>
       </c>
-      <c r="C11" s="11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="33">
-        <f t="shared" si="0"/>
+      <c r="C28" s="11">
+        <v>0</v>
+      </c>
+      <c r="D28" s="33">
+        <f t="shared" si="1"/>
         <v>0.10347222222222223</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B29" s="11">
         <v>8.9583333333333334E-2</v>
       </c>
-      <c r="C12" s="11">
-        <v>0</v>
-      </c>
-      <c r="D12" s="33">
-        <f t="shared" si="0"/>
+      <c r="C29" s="11">
+        <v>0</v>
+      </c>
+      <c r="D29" s="33">
+        <f t="shared" si="1"/>
         <v>8.9583333333333334E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="E29" s="11"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B30" s="11">
         <v>2.2916666666666669E-2</v>
       </c>
-      <c r="C13" s="11">
-        <v>0</v>
-      </c>
-      <c r="D13" s="33">
-        <f t="shared" si="0"/>
+      <c r="C30" s="11">
+        <v>0</v>
+      </c>
+      <c r="D30" s="33">
+        <f t="shared" si="1"/>
         <v>2.2916666666666669E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B31" s="11">
         <v>0.10972222222222222</v>
       </c>
-      <c r="C14" s="11">
-        <v>0</v>
-      </c>
-      <c r="D14" s="33">
-        <f t="shared" si="0"/>
+      <c r="C31" s="11">
+        <v>0</v>
+      </c>
+      <c r="D31" s="33">
+        <f t="shared" si="1"/>
         <v>0.10972222222222222</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B32" s="11">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="C15" s="11">
-        <v>0</v>
-      </c>
-      <c r="D15" s="33">
-        <f t="shared" si="0"/>
+      <c r="C32" s="11">
+        <v>0</v>
+      </c>
+      <c r="D32" s="33">
+        <f t="shared" si="1"/>
         <v>2.2222222222222223E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B33" s="11">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="C16" s="11">
-        <v>0</v>
-      </c>
-      <c r="D16" s="33">
-        <f t="shared" si="0"/>
+      <c r="C33" s="11">
+        <v>0</v>
+      </c>
+      <c r="D33" s="33">
+        <f t="shared" si="1"/>
         <v>2.0833333333333333E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B34" s="11">
         <v>8.1250000000000003E-2</v>
       </c>
-      <c r="C17" s="11">
-        <v>0</v>
-      </c>
-      <c r="D17" s="34">
-        <f t="shared" si="0"/>
+      <c r="C34" s="11">
+        <v>0</v>
+      </c>
+      <c r="D34" s="34">
+        <f t="shared" si="1"/>
         <v>8.1250000000000003E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="E34" s="11"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="12" t="str">
-        <f>TEXT(SUM(B2:B17), "[h]:mm:ss")</f>
-        <v>22:48:00</v>
-      </c>
-      <c r="C18" s="12" t="str">
-        <f>TEXT(SUM(C2:C17), "[h]:mm:ss")</f>
-        <v>1:44:00</v>
-      </c>
-      <c r="D18" s="26" t="str">
-        <f>TEXT(SUM(D2:D17), "[h]:mm:ss")</f>
-        <v>21:04:00</v>
-      </c>
+      <c r="B35" s="12" t="str">
+        <f>TEXT(SUM(B3:B7)+SUM(B9:B20), "[h]:mm:ss")</f>
+        <v>1:45:00</v>
+      </c>
+      <c r="C35" s="12" t="str">
+        <f>TEXT(SUM(C3:C7)+SUM(C9:C20), "[h]:mm:ss")</f>
+        <v>0:00:00</v>
+      </c>
+      <c r="D35" s="12" t="str">
+        <f>TEXT(SUM(D3:D7)+SUM(D9:D20), "[h]:mm:ss")</f>
+        <v>1:45:00</v>
+      </c>
+      <c r="E35" s="99"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E35" xr:uid="{5E946559-0CBE-46AE-AF2B-B10AC2CE2639}"/>
   <hyperlinks>
-    <hyperlink ref="E1" location="Cursos!A1" display="Volver Cursos" xr:uid="{DC5BD1DC-6670-44D9-A35F-AA3EBDA377CC}"/>
+    <hyperlink ref="F1" location="Cursos!A1" display="Volver Cursos" xr:uid="{DC5BD1DC-6670-44D9-A35F-AA3EBDA377CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3924,7 +4435,7 @@
       <c r="D1" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="57" t="s">
         <v>188</v>
       </c>
     </row>
@@ -4268,7 +4779,7 @@
       <c r="D1" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="57" t="s">
         <v>188</v>
       </c>
     </row>
@@ -4582,7 +5093,7 @@
       <c r="D1" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="57" t="s">
         <v>188</v>
       </c>
     </row>
@@ -4733,10 +5244,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{551766D7-4392-4A05-B6E9-981BD17FC6C2}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4745,10 +5256,11 @@
     <col min="2" max="2" width="8.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -4761,418 +5273,488 @@
       <c r="D1" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="F1" s="57" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="10">
-        <v>4.8611111111111112E-3</v>
-      </c>
-      <c r="C2" s="10">
-        <v>4.8611111111111112E-3</v>
-      </c>
-      <c r="D2" s="32">
+      <c r="B2" s="72" t="str">
+        <f>TEXT(SUM(B3:B3),"[h]:mm:ss")</f>
+        <v>0:03:00</v>
+      </c>
+      <c r="C2" s="72" t="str">
+        <f>TEXT(SUM(C3:C3),"[h]:mm:ss")</f>
+        <v>0:00:00</v>
+      </c>
+      <c r="D2" s="92">
         <f>B2-C2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="E2" s="74" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="58" t="s">
         <v>189</v>
       </c>
       <c r="B3" s="11">
         <v>2.0833333333333333E-3</v>
       </c>
       <c r="C3" s="11">
+        <v>0</v>
+      </c>
+      <c r="D3" s="33">
+        <f t="shared" ref="D3:D57" si="0">B3-C3</f>
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="D3" s="33">
-        <f t="shared" ref="D3:D45" si="0">B3-C3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="E3" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="11">
-        <v>4.5833333333333337E-2</v>
-      </c>
-      <c r="C4" s="11">
-        <v>0</v>
-      </c>
-      <c r="D4" s="33">
-        <f t="shared" si="0"/>
-        <v>4.5833333333333337E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="72" t="str">
+        <f>TEXT(SUM(B5:B5),"[h]:mm:ss")</f>
+        <v>0:03:00</v>
+      </c>
+      <c r="C4" s="72" t="str">
+        <f>TEXT(SUM(C5:C5),"[h]:mm:ss")</f>
+        <v>0:00:00</v>
+      </c>
+      <c r="D4" s="72">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="E4" s="74" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" s="11">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0</v>
+      </c>
+      <c r="D5" s="32">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B6" s="72" t="str">
+        <f>TEXT(SUM(B7:B17),"[h]:mm:ss")</f>
+        <v>1:05:00</v>
+      </c>
+      <c r="C6" s="72" t="str">
+        <f>TEXT(SUM(C7:C17),"[h]:mm:ss")</f>
+        <v>0:00:00</v>
+      </c>
+      <c r="D6" s="96">
+        <f t="shared" si="0"/>
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B7" s="11">
         <v>2.7777777777777779E-3</v>
       </c>
-      <c r="C5" s="11">
-        <v>0</v>
-      </c>
-      <c r="D5" s="33">
+      <c r="C7" s="27">
+        <v>0</v>
+      </c>
+      <c r="D7" s="103">
         <f t="shared" si="0"/>
         <v>2.7777777777777779E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="E7" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8" s="11">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="C8" s="27">
+        <v>0</v>
+      </c>
+      <c r="D8" s="104">
+        <f t="shared" si="0"/>
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9" s="11">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="C9" s="27">
+        <v>0</v>
+      </c>
+      <c r="D9" s="97">
+        <f t="shared" si="0"/>
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B10" s="11">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="C10" s="27">
+        <v>0</v>
+      </c>
+      <c r="D10" s="97">
+        <f t="shared" si="0"/>
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B11" s="11">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="C11" s="27">
+        <v>0</v>
+      </c>
+      <c r="D11" s="97">
+        <f t="shared" si="0"/>
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B12" s="11">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="C12" s="27">
+        <v>0</v>
+      </c>
+      <c r="D12" s="97">
+        <f t="shared" si="0"/>
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B13" s="11">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="C13" s="27">
+        <v>0</v>
+      </c>
+      <c r="D13" s="97">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B14" s="11">
+        <v>6.2499999999999995E-3</v>
+      </c>
+      <c r="C14" s="27">
+        <v>0</v>
+      </c>
+      <c r="D14" s="97">
+        <f t="shared" si="0"/>
+        <v>6.2499999999999995E-3</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B15" s="11">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="C15" s="27">
+        <v>0</v>
+      </c>
+      <c r="D15" s="97">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B16" s="11">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="C16" s="27">
+        <v>0</v>
+      </c>
+      <c r="D16" s="97">
+        <f t="shared" si="0"/>
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B17" s="11">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="C17" s="27">
+        <v>0</v>
+      </c>
+      <c r="D17" s="98">
+        <f t="shared" si="0"/>
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B18" s="74">
         <v>1.8055555555555557E-2</v>
       </c>
-      <c r="C6" s="11">
-        <v>0</v>
-      </c>
-      <c r="D6" s="33">
+      <c r="C18" s="74">
+        <v>0</v>
+      </c>
+      <c r="D18" s="34">
         <f t="shared" si="0"/>
         <v>1.8055555555555557E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="E18" s="74" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B19" s="11">
         <v>2.4999999999999998E-2</v>
       </c>
-      <c r="C7" s="11">
-        <v>0</v>
-      </c>
-      <c r="D7" s="33">
+      <c r="C19" s="11">
+        <v>0</v>
+      </c>
+      <c r="D19" s="11">
         <f t="shared" si="0"/>
         <v>2.4999999999999998E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B20" s="11">
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="C8" s="11">
-        <v>0</v>
-      </c>
-      <c r="D8" s="33">
+      <c r="C20" s="11">
+        <v>0</v>
+      </c>
+      <c r="D20" s="11">
         <f t="shared" si="0"/>
         <v>1.6666666666666666E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B21" s="11">
         <v>1.5277777777777777E-2</v>
       </c>
-      <c r="C9" s="11">
-        <v>0</v>
-      </c>
-      <c r="D9" s="33">
+      <c r="C21" s="11">
+        <v>0</v>
+      </c>
+      <c r="D21" s="27">
         <f t="shared" si="0"/>
         <v>1.5277777777777777E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B22" s="11">
         <v>1.7361111111111112E-2</v>
       </c>
-      <c r="C10" s="11">
-        <v>0</v>
-      </c>
-      <c r="D10" s="33">
+      <c r="C22" s="11">
+        <v>0</v>
+      </c>
+      <c r="D22" s="11">
         <f t="shared" si="0"/>
         <v>1.7361111111111112E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B23" s="11">
         <v>2.5694444444444447E-2</v>
       </c>
-      <c r="C11" s="11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="33">
+      <c r="C23" s="11">
+        <v>0</v>
+      </c>
+      <c r="D23" s="11">
         <f t="shared" si="0"/>
         <v>2.5694444444444447E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B24" s="11">
         <v>6.2499999999999995E-3</v>
       </c>
-      <c r="C12" s="11">
-        <v>0</v>
-      </c>
-      <c r="D12" s="33">
+      <c r="C24" s="11">
+        <v>0</v>
+      </c>
+      <c r="D24" s="11">
         <f t="shared" si="0"/>
         <v>6.2499999999999995E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B25" s="11">
         <v>9.0277777777777787E-3</v>
       </c>
-      <c r="C13" s="11">
-        <v>0</v>
-      </c>
-      <c r="D13" s="33">
+      <c r="C25" s="11">
+        <v>0</v>
+      </c>
+      <c r="D25" s="11">
         <f t="shared" si="0"/>
         <v>9.0277777777777787E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B26" s="11">
         <v>1.9444444444444445E-2</v>
       </c>
-      <c r="C14" s="11">
-        <v>0</v>
-      </c>
-      <c r="D14" s="33">
+      <c r="C26" s="11">
+        <v>0</v>
+      </c>
+      <c r="D26" s="11">
         <f t="shared" si="0"/>
         <v>1.9444444444444445E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B27" s="11">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="C15" s="11">
-        <v>0</v>
-      </c>
-      <c r="D15" s="33">
+      <c r="C27" s="11">
+        <v>0</v>
+      </c>
+      <c r="D27" s="11">
         <f t="shared" si="0"/>
         <v>1.3888888888888889E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B28" s="11">
         <v>8.2638888888888887E-2</v>
       </c>
-      <c r="C16" s="11">
-        <v>0</v>
-      </c>
-      <c r="D16" s="33">
+      <c r="C28" s="11">
+        <v>0</v>
+      </c>
+      <c r="D28" s="11">
         <f t="shared" si="0"/>
         <v>8.2638888888888887E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B17" s="11">
-        <v>2.0833333333333333E-3</v>
-      </c>
-      <c r="C17" s="11">
-        <v>0</v>
-      </c>
-      <c r="D17" s="33">
-        <f t="shared" si="0"/>
-        <v>2.0833333333333333E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="11">
-        <v>2.4305555555555556E-2</v>
-      </c>
-      <c r="C18" s="11">
-        <v>0</v>
-      </c>
-      <c r="D18" s="33">
-        <f t="shared" si="0"/>
-        <v>2.4305555555555556E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="11">
-        <v>1.3888888888888889E-3</v>
-      </c>
-      <c r="C19" s="11">
-        <v>0</v>
-      </c>
-      <c r="D19" s="33">
-        <f t="shared" si="0"/>
-        <v>1.3888888888888889E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="11">
-        <v>0.10555555555555556</v>
-      </c>
-      <c r="C20" s="11">
-        <v>0</v>
-      </c>
-      <c r="D20" s="33">
-        <f t="shared" si="0"/>
-        <v>0.10555555555555556</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="11">
-        <v>1.3888888888888889E-3</v>
-      </c>
-      <c r="C21" s="11">
-        <v>0</v>
-      </c>
-      <c r="D21" s="33">
-        <f t="shared" si="0"/>
-        <v>1.3888888888888889E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="11">
-        <v>2.7083333333333334E-2</v>
-      </c>
-      <c r="C22" s="11">
-        <v>0</v>
-      </c>
-      <c r="D22" s="33">
-        <f t="shared" si="0"/>
-        <v>2.7083333333333334E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="11">
-        <v>1.3888888888888889E-3</v>
-      </c>
-      <c r="C23" s="11">
-        <v>0</v>
-      </c>
-      <c r="D23" s="33">
-        <f t="shared" si="0"/>
-        <v>1.3888888888888889E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="11">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C24" s="11">
-        <v>0</v>
-      </c>
-      <c r="D24" s="33">
-        <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="11">
-        <v>1.3888888888888889E-3</v>
-      </c>
-      <c r="C25" s="11">
-        <v>0</v>
-      </c>
-      <c r="D25" s="33">
-        <f t="shared" si="0"/>
-        <v>1.3888888888888889E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="11">
-        <v>4.027777777777778E-2</v>
-      </c>
-      <c r="C26" s="11">
-        <v>0</v>
-      </c>
-      <c r="D26" s="33">
-        <f t="shared" si="0"/>
-        <v>4.027777777777778E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="11">
-        <v>6.9444444444444447E-4</v>
-      </c>
-      <c r="C27" s="11">
-        <v>0</v>
-      </c>
-      <c r="D27" s="33">
-        <f t="shared" si="0"/>
-        <v>6.9444444444444447E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="11">
-        <v>1.1111111111111112E-2</v>
-      </c>
-      <c r="C28" s="11">
-        <v>0</v>
-      </c>
-      <c r="D28" s="33">
-        <f t="shared" si="0"/>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="B29" s="11">
         <v>2.0833333333333333E-3</v>
@@ -5180,164 +5762,175 @@
       <c r="C29" s="11">
         <v>0</v>
       </c>
-      <c r="D29" s="33">
+      <c r="D29" s="11">
         <f t="shared" si="0"/>
         <v>2.0833333333333333E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="11"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B30" s="11">
-        <v>4.0972222222222222E-2</v>
+        <v>2.4305555555555556E-2</v>
       </c>
       <c r="C30" s="11">
         <v>0</v>
       </c>
-      <c r="D30" s="33">
-        <f t="shared" si="0"/>
-        <v>4.0972222222222222E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="11">
+        <f t="shared" si="0"/>
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B31" s="11">
-        <v>3.9583333333333331E-2</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="C31" s="11">
         <v>0</v>
       </c>
-      <c r="D31" s="33">
-        <f t="shared" si="0"/>
-        <v>3.9583333333333331E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="11">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B32" s="11">
-        <v>2.7777777777777779E-3</v>
+        <v>0.10555555555555556</v>
       </c>
       <c r="C32" s="11">
         <v>0</v>
       </c>
-      <c r="D32" s="33">
-        <f t="shared" si="0"/>
-        <v>2.7777777777777779E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="11">
+        <f t="shared" si="0"/>
+        <v>0.10555555555555556</v>
+      </c>
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B33" s="11">
-        <v>3.1944444444444449E-2</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="C33" s="11">
         <v>0</v>
       </c>
-      <c r="D33" s="33">
-        <f t="shared" si="0"/>
-        <v>3.1944444444444449E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="11">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B34" s="11">
-        <v>1.7361111111111112E-2</v>
+        <v>2.7083333333333334E-2</v>
       </c>
       <c r="C34" s="11">
         <v>0</v>
       </c>
-      <c r="D34" s="33">
-        <f t="shared" si="0"/>
-        <v>1.7361111111111112E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="11">
+        <f t="shared" si="0"/>
+        <v>2.7083333333333334E-2</v>
+      </c>
+      <c r="E34" s="11"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B35" s="11">
-        <v>1.1111111111111112E-2</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="C35" s="11">
         <v>0</v>
       </c>
-      <c r="D35" s="33">
-        <f t="shared" si="0"/>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="27">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="E35" s="105"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B36" s="11">
-        <v>1.5277777777777777E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C36" s="11">
         <v>0</v>
       </c>
-      <c r="D36" s="33">
-        <f t="shared" si="0"/>
-        <v>1.5277777777777777E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="11">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E36" s="106"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B37" s="11">
-        <v>2.0833333333333333E-3</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="C37" s="11">
         <v>0</v>
       </c>
-      <c r="D37" s="33">
-        <f t="shared" si="0"/>
-        <v>2.0833333333333333E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="11">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="E37" s="106"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B38" s="11">
-        <v>1.1111111111111112E-2</v>
+        <v>4.027777777777778E-2</v>
       </c>
       <c r="C38" s="11">
         <v>0</v>
       </c>
-      <c r="D38" s="33">
-        <f t="shared" si="0"/>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="11">
+        <f t="shared" si="0"/>
+        <v>4.027777777777778E-2</v>
+      </c>
+      <c r="E38" s="106"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B39" s="11">
-        <v>2.9861111111111113E-2</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="C39" s="11">
         <v>0</v>
       </c>
-      <c r="D39" s="33">
-        <f t="shared" si="0"/>
-        <v>2.9861111111111113E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="11">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="E39" s="106"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B40" s="11">
         <v>1.1111111111111112E-2</v>
@@ -5345,128 +5938,318 @@
       <c r="C40" s="11">
         <v>0</v>
       </c>
-      <c r="D40" s="33">
+      <c r="D40" s="11">
         <f t="shared" si="0"/>
         <v>1.1111111111111112E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="106"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="11">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="C41" s="11">
+        <v>0</v>
+      </c>
+      <c r="D41" s="11">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="E41" s="106"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="11">
+        <v>4.0972222222222222E-2</v>
+      </c>
+      <c r="C42" s="11">
+        <v>0</v>
+      </c>
+      <c r="D42" s="11">
+        <f t="shared" si="0"/>
+        <v>4.0972222222222222E-2</v>
+      </c>
+      <c r="E42" s="106"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="11">
+        <v>3.9583333333333331E-2</v>
+      </c>
+      <c r="C43" s="11">
+        <v>0</v>
+      </c>
+      <c r="D43" s="11">
+        <f t="shared" si="0"/>
+        <v>3.9583333333333331E-2</v>
+      </c>
+      <c r="E43" s="106"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="11">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="C44" s="11">
+        <v>0</v>
+      </c>
+      <c r="D44" s="11">
+        <f t="shared" si="0"/>
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="E44" s="106"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="11">
+        <v>3.1944444444444449E-2</v>
+      </c>
+      <c r="C45" s="11">
+        <v>0</v>
+      </c>
+      <c r="D45" s="11">
+        <f t="shared" si="0"/>
+        <v>3.1944444444444449E-2</v>
+      </c>
+      <c r="E45" s="106"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="11">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="C46" s="11">
+        <v>0</v>
+      </c>
+      <c r="D46" s="11">
+        <f t="shared" si="0"/>
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="E46" s="106"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="11">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="C47" s="11">
+        <v>0</v>
+      </c>
+      <c r="D47" s="11">
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="E47" s="106"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="11">
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="C48" s="11">
+        <v>0</v>
+      </c>
+      <c r="D48" s="11">
+        <f t="shared" si="0"/>
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="E48" s="106"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="11">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="C49" s="11">
+        <v>0</v>
+      </c>
+      <c r="D49" s="11">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="E49" s="106"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" s="11">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="C50" s="11">
+        <v>0</v>
+      </c>
+      <c r="D50" s="11">
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="E50" s="106"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="11">
+        <v>2.9861111111111113E-2</v>
+      </c>
+      <c r="C51" s="11">
+        <v>0</v>
+      </c>
+      <c r="D51" s="11">
+        <f t="shared" si="0"/>
+        <v>2.9861111111111113E-2</v>
+      </c>
+      <c r="E51" s="106"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="11">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="C52" s="11">
+        <v>0</v>
+      </c>
+      <c r="D52" s="11">
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="E52" s="106"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B53" s="11">
         <v>1.8749999999999999E-2</v>
       </c>
-      <c r="C41" s="11">
-        <v>0</v>
-      </c>
-      <c r="D41" s="33">
+      <c r="C53" s="11">
+        <v>0</v>
+      </c>
+      <c r="D53" s="11">
         <f t="shared" si="0"/>
         <v>1.8749999999999999E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="E53" s="106"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B54" s="11">
         <v>5.4166666666666669E-2</v>
       </c>
-      <c r="C42" s="11">
-        <v>0</v>
-      </c>
-      <c r="D42" s="33">
+      <c r="C54" s="11">
+        <v>0</v>
+      </c>
+      <c r="D54" s="11">
         <f t="shared" si="0"/>
         <v>5.4166666666666669E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="E54" s="106"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B55" s="11">
         <v>6.9444444444444447E-4</v>
       </c>
-      <c r="C43" s="11">
-        <v>0</v>
-      </c>
-      <c r="D43" s="33">
+      <c r="C55" s="11">
+        <v>0</v>
+      </c>
+      <c r="D55" s="11">
         <f t="shared" si="0"/>
         <v>6.9444444444444447E-4</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="E55" s="106"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B56" s="11">
         <v>1.2499999999999999E-2</v>
       </c>
-      <c r="C44" s="11">
-        <v>0</v>
-      </c>
-      <c r="D44" s="33">
+      <c r="C56" s="11">
+        <v>0</v>
+      </c>
+      <c r="D56" s="11">
         <f t="shared" si="0"/>
         <v>1.2499999999999999E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="E56" s="106"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B57" s="11">
         <v>6.9444444444444447E-4</v>
       </c>
-      <c r="C45" s="11">
-        <v>0</v>
-      </c>
-      <c r="D45" s="33">
+      <c r="C57" s="11">
+        <v>0</v>
+      </c>
+      <c r="D57" s="11">
         <f t="shared" si="0"/>
         <v>6.9444444444444447E-4</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="E57" s="106"/>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="B46" s="76"/>
-      <c r="C46" s="76"/>
-      <c r="D46" s="76"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="70"/>
-      <c r="B47" s="76"/>
-      <c r="C47" s="76"/>
-      <c r="D47" s="76"/>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5"/>
-      <c r="B48" s="76"/>
-      <c r="C48" s="76"/>
-      <c r="D48" s="76"/>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="15" t="s">
+      <c r="B58" s="94"/>
+      <c r="C58" s="94"/>
+      <c r="D58" s="95"/>
+      <c r="E58" s="95"/>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="12" t="str">
-        <f>TEXT(SUM(B2:B45), "[h]:mm:ss")</f>
-        <v>20:28:00</v>
-      </c>
-      <c r="C49" s="12" t="str">
-        <f>TEXT(SUM(C2:C45), "[h]:mm:ss")</f>
-        <v>0:10:00</v>
-      </c>
-      <c r="D49" s="26" t="str">
-        <f>TEXT(SUM(D2:D45), "[h]:mm:ss")</f>
-        <v>20:18:00</v>
-      </c>
+      <c r="B59" s="12" t="str">
+        <f>TEXT((B3+B5) + SUM(B7:B17), "[h]:mm:ss")</f>
+        <v>1:11:00</v>
+      </c>
+      <c r="C59" s="12" t="str">
+        <f>TEXT(SUM(C2:C57), "[h]:mm:ss")</f>
+        <v>0:00:00</v>
+      </c>
+      <c r="D59" s="26" t="str">
+        <f>TEXT(SUM(D2:D57), "[h]:mm:ss")</f>
+        <v>21:30:00</v>
+      </c>
+      <c r="E59" s="107"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E59" xr:uid="{E4BE3F30-6C1F-4FC9-BE4E-8F141BD45099}"/>
   <hyperlinks>
-    <hyperlink ref="E1" location="Cursos!A1" display="Volver Cursos" xr:uid="{FCAF9517-2E91-428C-B726-A8B002DF874D}"/>
+    <hyperlink ref="F1" location="Cursos!A1" display="Volver Cursos" xr:uid="{5CFE250E-6444-49CD-BFA7-2CD2892AC7A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5500,7 +6283,7 @@
       <c r="D1" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="57" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5667,7 +6450,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="59" t="s">
         <v>190</v>
       </c>
       <c r="B1" s="9" t="s">
@@ -5679,146 +6462,146 @@
       <c r="D1" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="57" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="66" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="72" t="str">
+      <c r="B2" s="67" t="str">
         <f>TEXT(SUM(B3:B12), "[h]:mm:ss")</f>
         <v>0:45:00</v>
       </c>
-      <c r="C2" s="72" t="str">
+      <c r="C2" s="67" t="str">
         <f>TEXT(SUM(C3:C12), "[h]:mm:ss")</f>
         <v>0:00:00</v>
       </c>
-      <c r="D2" s="74">
+      <c r="D2" s="69">
         <f>B2-C2</f>
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="70" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="65">
+      <c r="B3" s="61">
         <v>4.1666666666666666E-3</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="62"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="60" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="65">
+      <c r="B4" s="61">
         <v>6.9444444444444447E-4</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="66"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="62"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="65">
+      <c r="B5" s="61">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="62"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="60" t="s">
         <v>195</v>
       </c>
-      <c r="B6" s="65">
+      <c r="B6" s="61">
         <v>7.6388888888888886E-3</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="60" t="s">
         <v>196</v>
       </c>
-      <c r="B7" s="65">
+      <c r="B7" s="61">
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="66"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="60" t="s">
         <v>197</v>
       </c>
-      <c r="B8" s="65">
+      <c r="B8" s="61">
         <v>4.8611111111111112E-3</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="66"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="60" t="s">
         <v>198</v>
       </c>
-      <c r="B9" s="65">
-        <v>0</v>
-      </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="66"/>
+      <c r="B9" s="61">
+        <v>0</v>
+      </c>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="60" t="s">
         <v>199</v>
       </c>
-      <c r="B10" s="65">
+      <c r="B10" s="61">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="66"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="B11" s="65">
+      <c r="B11" s="61">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="B12" s="65">
+      <c r="B12" s="61">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="66"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="66" t="s">
         <v>202</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="74"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="69"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="66"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="67"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="69"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="65"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
